--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="538">
   <si>
     <t>Identifier</t>
   </si>
@@ -1641,6 +1641,15 @@
   </si>
   <si>
     <t>preagen</t>
+  </si>
+  <si>
+    <t>possesum</t>
+  </si>
+  <si>
+    <t>existencs</t>
+  </si>
+  <si>
+    <t>comparison</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1742,6 +1751,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2027,8 +2039,8 @@
   <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI1" sqref="AI1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF92" sqref="AF92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,10 +2279,10 @@
         <v>517</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>341</v>
+        <v>535</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
@@ -3401,10 +3413,10 @@
         <v>484</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>521</v>
+        <v>341</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="AF12" s="10" t="s">
         <v>518</v>
@@ -3542,10 +3554,10 @@
         <v>517</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>341</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
@@ -4682,10 +4694,10 @@
         <v>341</v>
       </c>
       <c r="AD23" s="10" t="s">
-        <v>514</v>
+        <v>341</v>
       </c>
       <c r="AE23" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AF23" s="10" t="s">
         <v>518</v>
@@ -5047,10 +5059,10 @@
         <v>341</v>
       </c>
       <c r="AJ26" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AK26" s="10" t="s">
-        <v>341</v>
+        <v>525</v>
       </c>
       <c r="AL26" s="10" t="s">
         <v>341</v>
@@ -5858,10 +5870,10 @@
         <v>341</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="AL33" s="10" t="s">
         <v>341</v>
@@ -5955,10 +5967,10 @@
         <v>488</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="AF34" s="10" t="s">
         <v>341</v>
@@ -6302,10 +6314,10 @@
         <v>408</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="AF37" s="10" t="s">
         <v>341</v>
@@ -7041,7 +7053,7 @@
       <c r="F44" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="11" t="s">
         <v>162</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -7815,10 +7827,10 @@
         <v>341</v>
       </c>
       <c r="AF50" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AG50" s="10" t="s">
-        <v>341</v>
+        <v>526</v>
       </c>
       <c r="AH50" s="10" t="s">
         <v>341</v>
@@ -7827,10 +7839,10 @@
         <v>341</v>
       </c>
       <c r="AJ50" s="10" t="s">
-        <v>341</v>
+        <v>537</v>
       </c>
       <c r="AK50" s="10" t="s">
-        <v>341</v>
+        <v>528</v>
       </c>
       <c r="AL50" s="10" t="s">
         <v>341</v>
@@ -8164,10 +8176,10 @@
         <v>341</v>
       </c>
       <c r="AF53" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>341</v>
+        <v>525</v>
       </c>
       <c r="AH53" s="10" t="s">
         <v>341</v>
@@ -8176,7 +8188,7 @@
         <v>341</v>
       </c>
       <c r="AJ53" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AK53" s="10" t="s">
         <v>517</v>
@@ -9099,7 +9111,7 @@
         <v>518</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="AH61" s="10" t="s">
         <v>341</v>

--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="536">
   <si>
     <t>Identifier</t>
   </si>
@@ -1625,12 +1626,6 @@
     <t>object</t>
   </si>
   <si>
-    <t>addressor</t>
-  </si>
-  <si>
-    <t>modification</t>
-  </si>
-  <si>
     <t>adjective</t>
   </si>
   <si>
@@ -1646,10 +1641,10 @@
     <t>possesum</t>
   </si>
   <si>
-    <t>existencs</t>
-  </si>
-  <si>
     <t>comparison</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -2036,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF92" sqref="AF92"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,10 +2043,10 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="6" width="10.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="29" width="10.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="28" width="10.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2085,90 +2080,89 @@
       <c r="K1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="M1" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>340</v>
+        <v>507</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2196,9 @@
       <c r="K2" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M2" s="9" t="s">
         <v>341</v>
       </c>
@@ -2210,43 +2206,43 @@
         <v>341</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>341</v>
@@ -2258,34 +2254,31 @@
         <v>341</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK2" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>517</v>
-      </c>
     </row>
-    <row r="3" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2317,9 +2310,11 @@
       <c r="K3" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="9" t="s">
+        <v>350</v>
+      </c>
       <c r="M3" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>341</v>
@@ -2343,37 +2338,37 @@
         <v>341</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>482</v>
+        <v>341</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AF3" s="10" t="s">
         <v>341</v>
@@ -2396,11 +2391,8 @@
       <c r="AL3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM3" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="4" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2434,7 +2426,9 @@
       <c r="K4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M4" s="9" t="s">
         <v>341</v>
       </c>
@@ -2442,25 +2436,25 @@
         <v>341</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>341</v>
@@ -2471,32 +2465,32 @@
       <c r="X4" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>341</v>
+      <c r="Y4" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>341</v>
@@ -2513,11 +2507,8 @@
       <c r="AL4" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM4" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="5" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2551,7 +2542,9 @@
       <c r="K5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M5" s="9" t="s">
         <v>341</v>
       </c>
@@ -2559,43 +2552,43 @@
         <v>341</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y5" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>341</v>
@@ -2607,13 +2600,13 @@
         <v>341</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH5" s="10" t="s">
         <v>341</v>
@@ -2630,11 +2623,8 @@
       <c r="AL5" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM5" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="6" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -2668,7 +2658,9 @@
       <c r="K6" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M6" s="9" t="s">
         <v>341</v>
       </c>
@@ -2676,43 +2668,43 @@
         <v>341</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB6" s="10" t="s">
         <v>341</v>
@@ -2724,13 +2716,13 @@
         <v>341</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>341</v>
@@ -2747,11 +2739,8 @@
       <c r="AL6" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM6" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="7" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -2785,9 +2774,11 @@
       <c r="K7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>341</v>
@@ -2811,37 +2802,37 @@
         <v>341</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y7" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB7" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AF7" s="10" t="s">
         <v>341</v>
@@ -2853,22 +2844,19 @@
         <v>341</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL7" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM7" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="8" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -2900,57 +2888,59 @@
       <c r="K8" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="M8" s="9" t="s">
-        <v>469</v>
+        <v>341</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>483</v>
+        <v>341</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y8" s="9" t="s">
-        <v>341</v>
+      <c r="Y8" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>343</v>
+        <v>484</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="AD8" s="10" t="s">
         <v>341</v>
@@ -2968,22 +2958,19 @@
         <v>341</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL8" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM8" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="9" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -3017,9 +3004,11 @@
       <c r="K9" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="M9" s="9" t="s">
-        <v>470</v>
+        <v>341</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>341</v>
@@ -3045,33 +3034,33 @@
       <c r="U9" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="V9" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="W9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="X9" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB9" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AF9" s="10" t="s">
         <v>341</v>
@@ -3094,11 +3083,8 @@
       <c r="AL9" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM9" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="10" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3130,57 +3116,59 @@
       <c r="K10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="M10" s="9" t="s">
-        <v>471</v>
+        <v>341</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>365</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>349</v>
+        <v>472</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>472</v>
+        <v>341</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y10" s="9" t="s">
-        <v>341</v>
+      <c r="Y10" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AD10" s="10" t="s">
         <v>341</v>
@@ -3198,22 +3186,19 @@
         <v>341</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM10" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="11" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -3245,7 +3230,9 @@
       <c r="K11" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M11" s="9" t="s">
         <v>341</v>
       </c>
@@ -3253,25 +3240,25 @@
         <v>341</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>341</v>
@@ -3282,14 +3269,14 @@
       <c r="X11" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB11" s="10" t="s">
         <v>341</v>
@@ -3301,13 +3288,13 @@
         <v>341</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>341</v>
@@ -3324,11 +3311,8 @@
       <c r="AL11" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM11" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="12" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -3360,69 +3344,71 @@
       <c r="K12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="M12" s="9" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y12" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y12" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>343</v>
+        <v>484</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="AD12" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>341</v>
@@ -3439,11 +3425,8 @@
       <c r="AL12" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM12" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="13" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -3477,7 +3460,9 @@
       <c r="K13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>341</v>
       </c>
@@ -3503,25 +3488,25 @@
         <v>341</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB13" s="10" t="s">
         <v>341</v>
@@ -3545,22 +3530,19 @@
         <v>341</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="AM13" s="10" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -3592,7 +3574,9 @@
       <c r="K14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M14" s="9" t="s">
         <v>341</v>
       </c>
@@ -3600,43 +3584,43 @@
         <v>341</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y14" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y14" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB14" s="10" t="s">
         <v>341</v>
@@ -3648,13 +3632,13 @@
         <v>341</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>341</v>
@@ -3671,11 +3655,8 @@
       <c r="AL14" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM14" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -3707,7 +3688,9 @@
       <c r="K15" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M15" s="9" t="s">
         <v>341</v>
       </c>
@@ -3733,28 +3716,28 @@
         <v>341</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y15" s="9" t="s">
-        <v>341</v>
+      <c r="Y15" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC15" s="10" t="s">
         <v>341</v>
@@ -3775,22 +3758,19 @@
         <v>341</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM15" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="16" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -3824,7 +3804,9 @@
       <c r="K16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M16" s="9" t="s">
         <v>341</v>
       </c>
@@ -3832,16 +3814,16 @@
         <v>341</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>474</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>341</v>
@@ -3850,25 +3832,25 @@
         <v>341</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>477</v>
+        <v>346</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB16" s="10" t="s">
         <v>341</v>
@@ -3880,19 +3862,19 @@
         <v>341</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AJ16" s="10" t="s">
         <v>341</v>
@@ -3903,11 +3885,8 @@
       <c r="AL16" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM16" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="17" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -3941,12 +3920,14 @@
       <c r="K17" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="M17" s="9" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>341</v>
@@ -3978,14 +3959,14 @@
       <c r="X17" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB17" s="10" t="s">
         <v>341</v>
@@ -4009,22 +3990,19 @@
         <v>341</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL17" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM17" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="18" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -4058,7 +4036,9 @@
       <c r="K18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M18" s="9" t="s">
         <v>341</v>
       </c>
@@ -4066,25 +4046,25 @@
         <v>341</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>343</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>476</v>
+        <v>343</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>341</v>
@@ -4095,32 +4075,32 @@
       <c r="X18" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB18" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>341</v>
@@ -4137,11 +4117,8 @@
       <c r="AL18" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM18" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="19" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -4173,7 +4150,9 @@
       <c r="K19" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M19" s="9" t="s">
         <v>341</v>
       </c>
@@ -4199,25 +4178,25 @@
         <v>341</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>345</v>
+        <v>485</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>485</v>
+        <v>346</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB19" s="10" t="s">
         <v>341</v>
@@ -4241,22 +4220,19 @@
         <v>341</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL19" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM19" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="20" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -4290,7 +4266,9 @@
       <c r="K20" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M20" s="9" t="s">
         <v>341</v>
       </c>
@@ -4298,22 +4276,22 @@
         <v>341</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>387</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U20" s="9" t="s">
         <v>341</v>
@@ -4327,14 +4305,14 @@
       <c r="X20" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB20" s="10" t="s">
         <v>341</v>
@@ -4346,13 +4324,13 @@
         <v>341</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH20" s="10" t="s">
         <v>341</v>
@@ -4369,11 +4347,8 @@
       <c r="AL20" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM20" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="21" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -4407,7 +4382,9 @@
       <c r="K21" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>341</v>
       </c>
@@ -4433,25 +4410,25 @@
         <v>341</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y21" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y21" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB21" s="10" t="s">
         <v>341</v>
@@ -4475,22 +4452,19 @@
         <v>341</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM21" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="22" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -4524,7 +4498,9 @@
       <c r="K22" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M22" s="9" t="s">
         <v>341</v>
       </c>
@@ -4532,25 +4508,25 @@
         <v>341</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>502</v>
+        <v>341</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V22" s="9" t="s">
         <v>341</v>
@@ -4561,14 +4537,14 @@
       <c r="X22" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB22" s="10" t="s">
         <v>341</v>
@@ -4580,19 +4556,19 @@
         <v>341</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="AJ22" s="10" t="s">
         <v>341</v>
@@ -4603,11 +4579,8 @@
       <c r="AL22" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM22" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="23" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -4641,33 +4614,35 @@
       <c r="K23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="M23" s="9" t="s">
-        <v>479</v>
+        <v>341</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V23" s="9" t="s">
         <v>341</v>
@@ -4678,14 +4653,14 @@
       <c r="X23" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y23" s="9" t="s">
-        <v>341</v>
+      <c r="Y23" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="10" t="s">
         <v>341</v>
@@ -4697,13 +4672,13 @@
         <v>341</v>
       </c>
       <c r="AE23" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF23" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH23" s="10" t="s">
         <v>341</v>
@@ -4720,11 +4695,8 @@
       <c r="AL23" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM23" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="24" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>96</v>
       </c>
@@ -4758,9 +4730,11 @@
       <c r="K24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="M24" s="9" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>341</v>
@@ -4795,14 +4769,14 @@
       <c r="X24" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y24" s="9" t="s">
+      <c r="Y24" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB24" s="10" t="s">
         <v>341</v>
@@ -4814,13 +4788,13 @@
         <v>341</v>
       </c>
       <c r="AE24" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF24" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG24" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH24" s="10" t="s">
         <v>341</v>
@@ -4837,11 +4811,8 @@
       <c r="AL24" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM24" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="25" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -4873,7 +4844,9 @@
       <c r="K25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M25" s="9" t="s">
         <v>341</v>
       </c>
@@ -4881,25 +4854,25 @@
         <v>341</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V25" s="9" t="s">
         <v>341</v>
@@ -4910,14 +4883,14 @@
       <c r="X25" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y25" s="9" t="s">
+      <c r="Y25" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB25" s="10" t="s">
         <v>341</v>
@@ -4929,13 +4902,13 @@
         <v>341</v>
       </c>
       <c r="AE25" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF25" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG25" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH25" s="10" t="s">
         <v>341</v>
@@ -4952,11 +4925,8 @@
       <c r="AL25" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM25" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="26" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -4988,7 +4958,9 @@
       <c r="K26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M26" s="9" t="s">
         <v>341</v>
       </c>
@@ -4996,43 +4968,43 @@
         <v>341</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB26" s="10" t="s">
         <v>341</v>
@@ -5044,34 +5016,31 @@
         <v>341</v>
       </c>
       <c r="AE26" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF26" s="10" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AG26" s="10" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="AH26" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI26" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ26" s="10" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="AK26" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AL26" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM26" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="27" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
@@ -5103,7 +5072,9 @@
       <c r="K27" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M27" s="9" t="s">
         <v>341</v>
       </c>
@@ -5111,25 +5082,25 @@
         <v>341</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V27" s="9" t="s">
         <v>341</v>
@@ -5140,14 +5111,14 @@
       <c r="X27" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y27" s="9" t="s">
+      <c r="Y27" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB27" s="10" t="s">
         <v>341</v>
@@ -5159,19 +5130,19 @@
         <v>341</v>
       </c>
       <c r="AE27" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF27" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG27" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="AG27" s="10" t="s">
+      <c r="AH27" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="AH27" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="AI27" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AJ27" s="10" t="s">
         <v>341</v>
@@ -5182,11 +5153,8 @@
       <c r="AL27" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM27" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="28" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>109</v>
       </c>
@@ -5218,7 +5186,9 @@
       <c r="K28" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M28" s="9" t="s">
         <v>341</v>
       </c>
@@ -5226,25 +5196,25 @@
         <v>341</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V28" s="9" t="s">
         <v>341</v>
@@ -5255,14 +5225,14 @@
       <c r="X28" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y28" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB28" s="10" t="s">
         <v>341</v>
@@ -5274,13 +5244,13 @@
         <v>341</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH28" s="10" t="s">
         <v>341</v>
@@ -5297,11 +5267,8 @@
       <c r="AL28" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM28" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="29" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
@@ -5335,7 +5302,9 @@
       <c r="K29" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>341</v>
       </c>
@@ -5343,25 +5312,25 @@
         <v>341</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>341</v>
+        <v>480</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>480</v>
+        <v>341</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V29" s="9" t="s">
         <v>341</v>
@@ -5372,14 +5341,14 @@
       <c r="X29" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y29" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB29" s="10" t="s">
         <v>341</v>
@@ -5391,19 +5360,19 @@
         <v>341</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI29" s="10" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="AJ29" s="10" t="s">
         <v>341</v>
@@ -5414,11 +5383,8 @@
       <c r="AL29" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM29" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="30" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -5450,7 +5416,9 @@
       <c r="K30" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M30" s="9" t="s">
         <v>341</v>
       </c>
@@ -5458,43 +5426,43 @@
         <v>341</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="X30" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB30" s="10" t="s">
         <v>341</v>
@@ -5506,13 +5474,13 @@
         <v>341</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH30" s="10" t="s">
         <v>341</v>
@@ -5529,11 +5497,8 @@
       <c r="AL30" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM30" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="31" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>119</v>
       </c>
@@ -5565,90 +5530,89 @@
       <c r="K31" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="M31" s="9" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="S31" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>341</v>
+        <v>503</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>503</v>
+        <v>341</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y31" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB31" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>341</v>
+        <v>535</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="AH31" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI31" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ31" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK31" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL31" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM31" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="32" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
@@ -5682,7 +5646,9 @@
       <c r="K32" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M32" s="9" t="s">
         <v>341</v>
       </c>
@@ -5690,25 +5656,25 @@
         <v>341</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>341</v>
+        <v>504</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V32" s="9" t="s">
         <v>341</v>
@@ -5719,14 +5685,14 @@
       <c r="X32" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y32" s="9" t="s">
-        <v>341</v>
+      <c r="Y32" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB32" s="10" t="s">
         <v>341</v>
@@ -5738,13 +5704,13 @@
         <v>341</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH32" s="10" t="s">
         <v>341</v>
@@ -5761,11 +5727,8 @@
       <c r="AL32" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM32" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="33" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>125</v>
       </c>
@@ -5799,9 +5762,11 @@
       <c r="K33" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="M33" s="9" t="s">
-        <v>486</v>
+        <v>341</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>341</v>
@@ -5825,31 +5790,31 @@
         <v>341</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>345</v>
+        <v>487</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>487</v>
+        <v>346</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y33" s="9" t="s">
-        <v>341</v>
+        <v>341</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="AD33" s="10" t="s">
         <v>341</v>
@@ -5867,22 +5832,19 @@
         <v>341</v>
       </c>
       <c r="AI33" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL33" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM33" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="34" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>129</v>
       </c>
@@ -5914,33 +5876,35 @@
       <c r="K34" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="M34" s="9" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="S34" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V34" s="9" t="s">
         <v>341</v>
@@ -5951,26 +5915,26 @@
       <c r="X34" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y34" s="9" t="s">
-        <v>341</v>
+      <c r="Y34" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB34" s="10" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AF34" s="10" t="s">
         <v>341</v>
@@ -5993,11 +5957,8 @@
       <c r="AL34" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM34" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="35" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
@@ -6029,12 +5990,14 @@
       <c r="K35" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="M35" s="9" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>341</v>
@@ -6066,32 +6029,32 @@
       <c r="X35" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y35" s="9" t="s">
-        <v>341</v>
+      <c r="Y35" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="AD35" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH35" s="10" t="s">
         <v>341</v>
@@ -6108,11 +6071,8 @@
       <c r="AL35" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM35" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="36" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
@@ -6146,7 +6106,9 @@
       <c r="K36" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M36" s="9" t="s">
         <v>341</v>
       </c>
@@ -6154,25 +6116,25 @@
         <v>341</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="S36" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V36" s="9" t="s">
         <v>341</v>
@@ -6183,53 +6145,50 @@
       <c r="X36" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y36" s="9" t="s">
+      <c r="Y36" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="AD36" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH36" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI36" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ36" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK36" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL36" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM36" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="37" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>139</v>
       </c>
@@ -6261,9 +6220,11 @@
       <c r="K37" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M37" s="9" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>341</v>
@@ -6287,37 +6248,37 @@
         <v>341</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y37" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AF37" s="10" t="s">
         <v>341</v>
@@ -6340,11 +6301,8 @@
       <c r="AL37" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM37" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="38" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>140</v>
       </c>
@@ -6376,7 +6334,9 @@
       <c r="K38" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M38" s="9" t="s">
         <v>341</v>
       </c>
@@ -6402,31 +6362,31 @@
         <v>341</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y38" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y38" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="AD38" s="10" t="s">
         <v>341</v>
@@ -6444,22 +6404,19 @@
         <v>341</v>
       </c>
       <c r="AI38" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ38" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL38" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM38" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="39" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -6491,7 +6448,9 @@
       <c r="K39" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M39" s="9" t="s">
         <v>341</v>
       </c>
@@ -6499,25 +6458,25 @@
         <v>341</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V39" s="9" t="s">
         <v>341</v>
@@ -6528,32 +6487,32 @@
       <c r="X39" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y39" s="9" t="s">
+      <c r="Y39" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB39" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AD39" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE39" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="AE39" s="10" t="s">
+      <c r="AF39" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="AF39" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="AG39" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH39" s="10" t="s">
         <v>341</v>
@@ -6570,11 +6529,8 @@
       <c r="AL39" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM39" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="40" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>146</v>
       </c>
@@ -6606,7 +6562,9 @@
       <c r="K40" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M40" s="9" t="s">
         <v>341</v>
       </c>
@@ -6614,16 +6572,16 @@
         <v>341</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="S40" s="9" t="s">
         <v>341</v>
@@ -6632,25 +6590,25 @@
         <v>341</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="W40" s="9" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="X40" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y40" s="9" t="s">
+      <c r="Y40" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB40" s="10" t="s">
         <v>341</v>
@@ -6662,13 +6620,13 @@
         <v>341</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="AF40" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="AH40" s="10" t="s">
         <v>341</v>
@@ -6685,11 +6643,8 @@
       <c r="AL40" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM40" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="41" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>149</v>
       </c>
@@ -6721,7 +6676,9 @@
       <c r="K41" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M41" s="9" t="s">
         <v>341</v>
       </c>
@@ -6747,31 +6704,31 @@
         <v>341</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y41" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y41" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="AD41" s="10" t="s">
         <v>341</v>
@@ -6789,22 +6746,19 @@
         <v>341</v>
       </c>
       <c r="AI41" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ41" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK41" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL41" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM41" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="42" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>153</v>
       </c>
@@ -6836,7 +6790,9 @@
       <c r="K42" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M42" s="9" t="s">
         <v>341</v>
       </c>
@@ -6862,25 +6818,25 @@
         <v>341</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y42" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y42" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB42" s="10" t="s">
         <v>341</v>
@@ -6904,22 +6860,19 @@
         <v>341</v>
       </c>
       <c r="AI42" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ42" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK42" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL42" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM42" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="43" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>157</v>
       </c>
@@ -6951,7 +6904,9 @@
       <c r="K43" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M43" s="9" t="s">
         <v>341</v>
       </c>
@@ -6959,25 +6914,25 @@
         <v>341</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="S43" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V43" s="9" t="s">
         <v>341</v>
@@ -6988,14 +6943,14 @@
       <c r="X43" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y43" s="9" t="s">
+      <c r="Y43" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB43" s="10" t="s">
         <v>341</v>
@@ -7007,13 +6962,13 @@
         <v>341</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH43" s="10" t="s">
         <v>341</v>
@@ -7030,11 +6985,8 @@
       <c r="AL43" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM43" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="44" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>160</v>
       </c>
@@ -7068,7 +7020,9 @@
       <c r="K44" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M44" s="9" t="s">
         <v>341</v>
       </c>
@@ -7076,43 +7030,43 @@
         <v>341</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="S44" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y44" s="9" t="s">
-        <v>341</v>
+        <v>341</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB44" s="10" t="s">
         <v>341</v>
@@ -7147,11 +7101,8 @@
       <c r="AL44" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM44" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="45" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7136,9 @@
       <c r="K45" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L45" s="7"/>
+      <c r="L45" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M45" s="9" t="s">
         <v>341</v>
       </c>
@@ -7193,25 +7146,25 @@
         <v>341</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>420</v>
+        <v>341</v>
       </c>
       <c r="S45" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V45" s="9" t="s">
         <v>341</v>
@@ -7222,32 +7175,32 @@
       <c r="X45" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y45" s="9" t="s">
-        <v>341</v>
+      <c r="Y45" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AD45" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH45" s="10" t="s">
         <v>341</v>
@@ -7264,11 +7217,8 @@
       <c r="AL45" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM45" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="46" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>168</v>
       </c>
@@ -7302,7 +7252,9 @@
       <c r="K46" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M46" s="9" t="s">
         <v>341</v>
       </c>
@@ -7310,25 +7262,25 @@
         <v>341</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="S46" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V46" s="9" t="s">
         <v>341</v>
@@ -7339,14 +7291,14 @@
       <c r="X46" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y46" s="9" t="s">
+      <c r="Y46" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB46" s="10" t="s">
         <v>341</v>
@@ -7358,13 +7310,13 @@
         <v>341</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH46" s="10" t="s">
         <v>341</v>
@@ -7381,11 +7333,8 @@
       <c r="AL46" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM46" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="47" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>170</v>
       </c>
@@ -7419,7 +7368,9 @@
       <c r="K47" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M47" s="9" t="s">
         <v>341</v>
       </c>
@@ -7430,22 +7381,22 @@
         <v>341</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="S47" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>341</v>
@@ -7456,14 +7407,14 @@
       <c r="X47" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" s="9" t="s">
+      <c r="Y47" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA47" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB47" s="10" t="s">
         <v>341</v>
@@ -7475,13 +7426,13 @@
         <v>341</v>
       </c>
       <c r="AE47" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF47" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH47" s="10" t="s">
         <v>341</v>
@@ -7498,11 +7449,8 @@
       <c r="AL47" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM47" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="48" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>174</v>
       </c>
@@ -7534,69 +7482,71 @@
       <c r="K48" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="M48" s="9" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>491</v>
+        <v>341</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="W48" s="9" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="X48" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" s="9" t="s">
-        <v>341</v>
+      <c r="Y48" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB48" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC48" s="10" t="s">
-        <v>341</v>
+        <v>525</v>
       </c>
       <c r="AD48" s="10" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AE48" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AF48" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH48" s="10" t="s">
         <v>341</v>
@@ -7613,11 +7563,8 @@
       <c r="AL48" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM48" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="49" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>178</v>
       </c>
@@ -7651,7 +7598,9 @@
       <c r="K49" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M49" s="9" t="s">
         <v>341</v>
       </c>
@@ -7659,25 +7608,25 @@
         <v>341</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V49" s="9" t="s">
         <v>341</v>
@@ -7688,32 +7637,32 @@
       <c r="X49" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y49" s="9" t="s">
-        <v>341</v>
+      <c r="Y49" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA49" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="AC49" s="10" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="AD49" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE49" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF49" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG49" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH49" s="10" t="s">
         <v>341</v>
@@ -7730,11 +7679,8 @@
       <c r="AL49" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM49" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="50" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -7768,7 +7714,9 @@
       <c r="K50" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M50" s="9" t="s">
         <v>341</v>
       </c>
@@ -7776,43 +7724,43 @@
         <v>341</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="S50" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="W50" s="9" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="X50" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y50" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA50" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB50" s="10" t="s">
         <v>341</v>
@@ -7824,34 +7772,31 @@
         <v>341</v>
       </c>
       <c r="AE50" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF50" s="10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AG50" s="10" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="AH50" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI50" s="10" t="s">
-        <v>341</v>
+        <v>534</v>
       </c>
       <c r="AJ50" s="10" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AK50" s="10" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="AL50" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM50" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="51" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>184</v>
       </c>
@@ -7883,7 +7828,9 @@
       <c r="K51" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M51" s="9" t="s">
         <v>341</v>
       </c>
@@ -7891,22 +7838,22 @@
         <v>341</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="U51" s="9" t="s">
         <v>341</v>
@@ -7920,53 +7867,50 @@
       <c r="X51" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y51" s="9" t="s">
+      <c r="Y51" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="AD51" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH51" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ51" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK51" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL51" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM51" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="52" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
@@ -8000,7 +7944,9 @@
       <c r="K52" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M52" s="9" t="s">
         <v>341</v>
       </c>
@@ -8008,43 +7954,43 @@
         <v>341</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>432</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="S52" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="W52" s="9" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y52" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y52" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA52" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB52" s="10" t="s">
         <v>341</v>
@@ -8056,34 +8002,31 @@
         <v>341</v>
       </c>
       <c r="AE52" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF52" s="10" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="AH52" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI52" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ52" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK52" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL52" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM52" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="53" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>191</v>
       </c>
@@ -8117,7 +8060,9 @@
       <c r="K53" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L53" s="7"/>
+      <c r="L53" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M53" s="9" t="s">
         <v>341</v>
       </c>
@@ -8125,16 +8070,16 @@
         <v>341</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="S53" s="9" t="s">
         <v>341</v>
@@ -8143,25 +8088,25 @@
         <v>341</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V53" s="9" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y53" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y53" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA53" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB53" s="10" t="s">
         <v>341</v>
@@ -8173,34 +8118,31 @@
         <v>341</v>
       </c>
       <c r="AE53" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF53" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH53" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI53" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ53" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK53" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL53" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM53" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="54" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>195</v>
       </c>
@@ -8232,7 +8174,9 @@
       <c r="K54" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L54" s="7"/>
+      <c r="L54" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M54" s="9" t="s">
         <v>341</v>
       </c>
@@ -8269,20 +8213,20 @@
       <c r="X54" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y54" s="9" t="s">
-        <v>341</v>
+      <c r="Y54" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA54" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB54" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC54" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AD54" s="10" t="s">
         <v>341</v>
@@ -8300,22 +8244,19 @@
         <v>341</v>
       </c>
       <c r="AI54" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ54" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK54" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL54" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM54" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="55" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>198</v>
       </c>
@@ -8349,7 +8290,9 @@
       <c r="K55" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L55" s="7"/>
+      <c r="L55" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M55" s="9" t="s">
         <v>341</v>
       </c>
@@ -8357,25 +8300,25 @@
         <v>341</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>341</v>
+        <v>436</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="S55" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V55" s="9" t="s">
         <v>341</v>
@@ -8386,14 +8329,14 @@
       <c r="X55" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y55" s="9" t="s">
+      <c r="Y55" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA55" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB55" s="10" t="s">
         <v>341</v>
@@ -8405,19 +8348,19 @@
         <v>341</v>
       </c>
       <c r="AE55" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF55" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG55" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="AG55" s="10" t="s">
+      <c r="AH55" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="AH55" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="AI55" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AJ55" s="10" t="s">
         <v>341</v>
@@ -8428,11 +8371,8 @@
       <c r="AL55" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM55" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="56" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>202</v>
       </c>
@@ -8466,9 +8406,11 @@
       <c r="K56" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L56" s="7"/>
+      <c r="L56" s="9" t="s">
+        <v>437</v>
+      </c>
       <c r="M56" s="9" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>341</v>
@@ -8503,26 +8445,26 @@
       <c r="X56" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y56" s="9" t="s">
-        <v>341</v>
+      <c r="Y56" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA56" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB56" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="AD56" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AE56" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AF56" s="10" t="s">
         <v>341</v>
@@ -8545,11 +8487,8 @@
       <c r="AL56" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM56" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="57" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>205</v>
       </c>
@@ -8583,7 +8522,9 @@
       <c r="K57" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L57" s="7"/>
+      <c r="L57" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M57" s="9" t="s">
         <v>341</v>
       </c>
@@ -8591,25 +8532,25 @@
         <v>341</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>341</v>
+        <v>438</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V57" s="9" t="s">
         <v>341</v>
@@ -8620,53 +8561,50 @@
       <c r="X57" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y57" s="9" t="s">
+      <c r="Y57" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA57" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="AC57" s="10" t="s">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="AD57" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE57" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF57" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG57" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH57" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI57" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ57" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK57" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL57" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM57" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="58" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
@@ -8698,7 +8636,9 @@
       <c r="K58" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="L58" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M58" s="9" t="s">
         <v>341</v>
       </c>
@@ -8706,43 +8646,43 @@
         <v>341</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>492</v>
+        <v>341</v>
       </c>
       <c r="S58" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T58" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U58" s="9" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="V58" s="9" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="W58" s="9" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="X58" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y58" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y58" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA58" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB58" s="10" t="s">
         <v>341</v>
@@ -8754,13 +8694,13 @@
         <v>341</v>
       </c>
       <c r="AE58" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF58" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH58" s="10" t="s">
         <v>341</v>
@@ -8777,11 +8717,8 @@
       <c r="AL58" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM58" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="59" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>213</v>
       </c>
@@ -8815,7 +8752,9 @@
       <c r="K59" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L59" s="7"/>
+      <c r="L59" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M59" s="9" t="s">
         <v>341</v>
       </c>
@@ -8823,25 +8762,25 @@
         <v>341</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V59" s="9" t="s">
         <v>341</v>
@@ -8852,53 +8791,50 @@
       <c r="X59" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y59" s="9" t="s">
+      <c r="Y59" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA59" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="AC59" s="10" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="AD59" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE59" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF59" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH59" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI59" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ59" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK59" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL59" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM59" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="60" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>217</v>
       </c>
@@ -8932,30 +8868,32 @@
       <c r="K60" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L60" s="7"/>
+      <c r="L60" s="9" t="s">
+        <v>442</v>
+      </c>
       <c r="M60" s="9" t="s">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>341</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>441</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="S60" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T60" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U60" s="9" t="s">
         <v>341</v>
@@ -8969,14 +8907,14 @@
       <c r="X60" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y60" s="9" t="s">
+      <c r="Y60" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA60" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB60" s="10" t="s">
         <v>341</v>
@@ -8988,34 +8926,31 @@
         <v>341</v>
       </c>
       <c r="AE60" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AF60" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG60" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH60" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI60" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AJ60" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AK60" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AL60" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM60" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="61" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>220</v>
       </c>
@@ -9049,7 +8984,9 @@
       <c r="K61" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L61" s="7"/>
+      <c r="L61" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M61" s="9" t="s">
         <v>341</v>
       </c>
@@ -9057,22 +8994,22 @@
         <v>341</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="Q61" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U61" s="9" t="s">
         <v>341</v>
@@ -9086,14 +9023,14 @@
       <c r="X61" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y61" s="9" t="s">
+      <c r="Y61" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA61" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB61" s="10" t="s">
         <v>341</v>
@@ -9105,13 +9042,13 @@
         <v>341</v>
       </c>
       <c r="AE61" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF61" s="10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="AH61" s="10" t="s">
         <v>341</v>
@@ -9128,11 +9065,8 @@
       <c r="AL61" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM61" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="62" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>224</v>
       </c>
@@ -9166,7 +9100,9 @@
       <c r="K62" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L62" s="7"/>
+      <c r="L62" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M62" s="9" t="s">
         <v>341</v>
       </c>
@@ -9174,25 +9110,25 @@
         <v>341</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="S62" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V62" s="9" t="s">
         <v>341</v>
@@ -9203,53 +9139,50 @@
       <c r="X62" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y62" s="9" t="s">
+      <c r="Y62" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z62" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA62" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB62" s="10" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="AC62" s="10" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="AD62" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE62" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF62" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH62" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI62" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ62" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK62" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL62" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM62" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="63" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>227</v>
       </c>
@@ -9283,7 +9216,9 @@
       <c r="K63" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L63" s="7"/>
+      <c r="L63" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M63" s="9" t="s">
         <v>341</v>
       </c>
@@ -9309,25 +9244,25 @@
         <v>341</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V63" s="9" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="W63" s="9" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="X63" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y63" s="9" t="s">
-        <v>341</v>
+        <v>341</v>
+      </c>
+      <c r="Y63" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB63" s="10" t="s">
         <v>341</v>
@@ -9351,22 +9286,19 @@
         <v>341</v>
       </c>
       <c r="AI63" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ63" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK63" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL63" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM63" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="64" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>230</v>
       </c>
@@ -9400,7 +9332,9 @@
       <c r="K64" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L64" s="7"/>
+      <c r="L64" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M64" s="9" t="s">
         <v>341</v>
       </c>
@@ -9426,25 +9360,25 @@
         <v>341</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="W64" s="9" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="X64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y64" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y64" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA64" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB64" s="10" t="s">
         <v>341</v>
@@ -9456,13 +9390,13 @@
         <v>341</v>
       </c>
       <c r="AE64" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF64" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>341</v>
@@ -9479,11 +9413,8 @@
       <c r="AL64" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM64" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="65" spans="1:39" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>234</v>
       </c>
@@ -9515,9 +9446,11 @@
       <c r="K65" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L65" s="7"/>
+      <c r="L65" s="9" t="s">
+        <v>447</v>
+      </c>
       <c r="M65" s="9" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="N65" s="9" t="s">
         <v>341</v>
@@ -9541,37 +9474,37 @@
         <v>341</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>349</v>
+        <v>446</v>
       </c>
       <c r="W65" s="9" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="X65" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y65" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y65" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z65" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA65" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB65" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC65" s="10" t="s">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="AD65" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE65" s="10" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="AF65" s="10" t="s">
         <v>341</v>
@@ -9583,22 +9516,19 @@
         <v>341</v>
       </c>
       <c r="AI65" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ65" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK65" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL65" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM65" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="66" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>237</v>
       </c>
@@ -9630,7 +9560,9 @@
       <c r="K66" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L66" s="7"/>
+      <c r="L66" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M66" s="9" t="s">
         <v>341</v>
       </c>
@@ -9638,25 +9570,25 @@
         <v>341</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>449</v>
+        <v>343</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V66" s="9" t="s">
         <v>341</v>
@@ -9667,32 +9599,32 @@
       <c r="X66" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y66" s="9" t="s">
-        <v>341</v>
+      <c r="Y66" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="Z66" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA66" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB66" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AC66" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AD66" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE66" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF66" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>341</v>
@@ -9709,11 +9641,8 @@
       <c r="AL66" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM66" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="67" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>240</v>
       </c>
@@ -9747,7 +9676,9 @@
       <c r="K67" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L67" s="7"/>
+      <c r="L67" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M67" s="9" t="s">
         <v>341</v>
       </c>
@@ -9755,61 +9686,61 @@
         <v>341</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>494</v>
+        <v>341</v>
       </c>
       <c r="S67" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="W67" s="9" t="s">
-        <v>493</v>
+        <v>346</v>
       </c>
       <c r="X67" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y67" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y67" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA67" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB67" s="10" t="s">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="AC67" s="10" t="s">
-        <v>450</v>
+        <v>341</v>
       </c>
       <c r="AD67" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AE67" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF67" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG67" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH67" s="10" t="s">
         <v>341</v>
@@ -9826,11 +9757,8 @@
       <c r="AL67" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM67" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="68" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>244</v>
       </c>
@@ -9864,7 +9792,9 @@
       <c r="K68" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L68" s="7"/>
+      <c r="L68" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M68" s="9" t="s">
         <v>341</v>
       </c>
@@ -9872,25 +9802,25 @@
         <v>341</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>451</v>
+        <v>341</v>
       </c>
       <c r="S68" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V68" s="9" t="s">
         <v>341</v>
@@ -9901,14 +9831,14 @@
       <c r="X68" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" s="9" t="s">
+      <c r="Y68" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z68" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA68" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB68" s="10" t="s">
         <v>341</v>
@@ -9920,13 +9850,13 @@
         <v>341</v>
       </c>
       <c r="AE68" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF68" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG68" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH68" s="10" t="s">
         <v>341</v>
@@ -9943,11 +9873,8 @@
       <c r="AL68" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM68" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="69" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>248</v>
       </c>
@@ -9979,7 +9906,9 @@
       <c r="K69" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L69" s="7"/>
+      <c r="L69" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M69" s="9" t="s">
         <v>341</v>
       </c>
@@ -9987,25 +9916,25 @@
         <v>341</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>343</v>
+        <v>452</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="S69" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V69" s="9" t="s">
         <v>341</v>
@@ -10016,14 +9945,14 @@
       <c r="X69" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y69" s="9" t="s">
+      <c r="Y69" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z69" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA69" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB69" s="10" t="s">
         <v>341</v>
@@ -10035,13 +9964,13 @@
         <v>341</v>
       </c>
       <c r="AE69" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF69" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG69" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH69" s="10" t="s">
         <v>341</v>
@@ -10058,11 +9987,8 @@
       <c r="AL69" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM69" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="70" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>252</v>
       </c>
@@ -10094,7 +10020,9 @@
       <c r="K70" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L70" s="7"/>
+      <c r="L70" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M70" s="9" t="s">
         <v>341</v>
       </c>
@@ -10102,16 +10030,16 @@
         <v>341</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="S70" s="9" t="s">
         <v>341</v>
@@ -10120,25 +10048,25 @@
         <v>341</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="X70" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y70" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y70" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z70" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA70" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB70" s="10" t="s">
         <v>341</v>
@@ -10150,34 +10078,31 @@
         <v>341</v>
       </c>
       <c r="AE70" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF70" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG70" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH70" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI70" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ70" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK70" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL70" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM70" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="71" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>255</v>
       </c>
@@ -10211,7 +10136,9 @@
       <c r="K71" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L71" s="7"/>
+      <c r="L71" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M71" s="9" t="s">
         <v>341</v>
       </c>
@@ -10219,25 +10146,25 @@
         <v>341</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>495</v>
+        <v>341</v>
       </c>
       <c r="S71" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V71" s="9" t="s">
         <v>341</v>
@@ -10248,14 +10175,14 @@
       <c r="X71" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y71" s="9" t="s">
+      <c r="Y71" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z71" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA71" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB71" s="10" t="s">
         <v>341</v>
@@ -10267,13 +10194,13 @@
         <v>341</v>
       </c>
       <c r="AE71" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF71" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH71" s="10" t="s">
         <v>341</v>
@@ -10290,11 +10217,8 @@
       <c r="AL71" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM71" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="72" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>258</v>
       </c>
@@ -10326,7 +10250,9 @@
       <c r="K72" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L72" s="7"/>
+      <c r="L72" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M72" s="9" t="s">
         <v>341</v>
       </c>
@@ -10337,22 +10263,22 @@
         <v>341</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="Q72" s="9" t="s">
         <v>496</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>496</v>
+        <v>343</v>
       </c>
       <c r="S72" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="V72" s="9" t="s">
         <v>341</v>
@@ -10363,14 +10289,14 @@
       <c r="X72" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y72" s="9" t="s">
+      <c r="Y72" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z72" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA72" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB72" s="10" t="s">
         <v>341</v>
@@ -10382,13 +10308,13 @@
         <v>341</v>
       </c>
       <c r="AE72" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF72" s="10" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG72" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="AH72" s="10" t="s">
         <v>341</v>
@@ -10405,11 +10331,8 @@
       <c r="AL72" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM72" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="73" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>261</v>
       </c>
@@ -10441,7 +10364,9 @@
       <c r="K73" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L73" s="7"/>
+      <c r="L73" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M73" s="9" t="s">
         <v>341</v>
       </c>
@@ -10449,25 +10374,25 @@
         <v>341</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>341</v>
+        <v>456</v>
       </c>
       <c r="R73" s="9" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="S73" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V73" s="9" t="s">
         <v>341</v>
@@ -10478,14 +10403,14 @@
       <c r="X73" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y73" s="9" t="s">
+      <c r="Y73" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z73" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA73" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB73" s="10" t="s">
         <v>341</v>
@@ -10497,13 +10422,13 @@
         <v>341</v>
       </c>
       <c r="AE73" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF73" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG73" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH73" s="10" t="s">
         <v>341</v>
@@ -10520,11 +10445,8 @@
       <c r="AL73" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM73" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="74" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>265</v>
       </c>
@@ -10556,7 +10478,9 @@
       <c r="K74" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L74" s="7"/>
+      <c r="L74" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M74" s="9" t="s">
         <v>341</v>
       </c>
@@ -10582,25 +10506,25 @@
         <v>341</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V74" s="9" t="s">
-        <v>349</v>
+        <v>497</v>
       </c>
       <c r="W74" s="9" t="s">
-        <v>497</v>
+        <v>346</v>
       </c>
       <c r="X74" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y74" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y74" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z74" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA74" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB74" s="10" t="s">
         <v>341</v>
@@ -10624,22 +10548,19 @@
         <v>341</v>
       </c>
       <c r="AI74" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ74" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK74" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL74" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM74" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="75" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>268</v>
       </c>
@@ -10673,7 +10594,9 @@
       <c r="K75" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L75" s="7"/>
+      <c r="L75" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M75" s="9" t="s">
         <v>341</v>
       </c>
@@ -10699,25 +10622,25 @@
         <v>341</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>457</v>
+        <v>346</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y75" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y75" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z75" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA75" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB75" s="10" t="s">
         <v>341</v>
@@ -10741,22 +10664,19 @@
         <v>341</v>
       </c>
       <c r="AI75" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ75" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK75" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL75" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM75" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="76" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>271</v>
       </c>
@@ -10790,7 +10710,9 @@
       <c r="K76" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L76" s="7"/>
+      <c r="L76" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M76" s="9" t="s">
         <v>341</v>
       </c>
@@ -10816,31 +10738,31 @@
         <v>341</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V76" s="9" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
       <c r="W76" s="9" t="s">
-        <v>458</v>
+        <v>346</v>
       </c>
       <c r="X76" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y76" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y76" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z76" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA76" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB76" s="10" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="AC76" s="10" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="AD76" s="10" t="s">
         <v>341</v>
@@ -10858,22 +10780,19 @@
         <v>341</v>
       </c>
       <c r="AI76" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ76" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK76" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL76" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM76" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="77" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>274</v>
       </c>
@@ -10907,7 +10826,9 @@
       <c r="K77" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L77" s="7"/>
+      <c r="L77" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M77" s="9" t="s">
         <v>341</v>
       </c>
@@ -10933,25 +10854,25 @@
         <v>341</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="X77" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y77" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y77" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z77" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA77" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB77" s="10" t="s">
         <v>341</v>
@@ -10975,22 +10896,19 @@
         <v>341</v>
       </c>
       <c r="AI77" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ77" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK77" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL77" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM77" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="78" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>277</v>
       </c>
@@ -11024,7 +10942,9 @@
       <c r="K78" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L78" s="7"/>
+      <c r="L78" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M78" s="9" t="s">
         <v>341</v>
       </c>
@@ -11032,22 +10952,22 @@
         <v>341</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>343</v>
+        <v>465</v>
       </c>
       <c r="Q78" s="9" t="s">
         <v>465</v>
       </c>
       <c r="R78" s="9" t="s">
-        <v>465</v>
+        <v>343</v>
       </c>
       <c r="S78" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U78" s="9" t="s">
         <v>341</v>
@@ -11061,14 +10981,14 @@
       <c r="X78" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y78" s="9" t="s">
+      <c r="Y78" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z78" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB78" s="10" t="s">
         <v>341</v>
@@ -11080,13 +11000,13 @@
         <v>341</v>
       </c>
       <c r="AE78" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF78" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH78" s="10" t="s">
         <v>341</v>
@@ -11103,11 +11023,8 @@
       <c r="AL78" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM78" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="79" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>280</v>
       </c>
@@ -11139,7 +11056,9 @@
       <c r="K79" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L79" s="7"/>
+      <c r="L79" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M79" s="9" t="s">
         <v>341</v>
       </c>
@@ -11147,43 +11066,43 @@
         <v>341</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="Q79" s="9" t="s">
         <v>397</v>
       </c>
       <c r="R79" s="9" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V79" s="9" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>498</v>
+        <v>341</v>
       </c>
       <c r="X79" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y79" s="9" t="s">
+      <c r="Y79" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA79" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB79" s="10" t="s">
         <v>341</v>
@@ -11195,13 +11114,13 @@
         <v>341</v>
       </c>
       <c r="AE79" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF79" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG79" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH79" s="10" t="s">
         <v>341</v>
@@ -11218,11 +11137,8 @@
       <c r="AL79" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM79" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="80" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>284</v>
       </c>
@@ -11254,7 +11170,9 @@
       <c r="K80" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L80" s="7"/>
+      <c r="L80" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M80" s="9" t="s">
         <v>341</v>
       </c>
@@ -11262,25 +11180,25 @@
         <v>341</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q80" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q80" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>468</v>
+        <v>341</v>
       </c>
       <c r="S80" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V80" s="9" t="s">
         <v>341</v>
@@ -11291,14 +11209,14 @@
       <c r="X80" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y80" s="9" t="s">
+      <c r="Y80" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA80" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB80" s="10" t="s">
         <v>341</v>
@@ -11310,13 +11228,13 @@
         <v>341</v>
       </c>
       <c r="AE80" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF80" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH80" s="10" t="s">
         <v>341</v>
@@ -11333,11 +11251,8 @@
       <c r="AL80" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM80" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="81" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>286</v>
       </c>
@@ -11371,7 +11286,9 @@
       <c r="K81" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L81" s="7"/>
+      <c r="L81" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M81" s="9" t="s">
         <v>341</v>
       </c>
@@ -11379,43 +11296,43 @@
         <v>341</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="S81" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T81" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="V81" s="9" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="X81" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y81" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y81" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA81" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB81" s="10" t="s">
         <v>341</v>
@@ -11427,13 +11344,13 @@
         <v>341</v>
       </c>
       <c r="AE81" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF81" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG81" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH81" s="10" t="s">
         <v>341</v>
@@ -11450,11 +11367,8 @@
       <c r="AL81" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM81" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="82" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>288</v>
       </c>
@@ -11488,7 +11402,9 @@
       <c r="K82" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L82" s="7"/>
+      <c r="L82" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M82" s="9" t="s">
         <v>341</v>
       </c>
@@ -11496,43 +11412,43 @@
         <v>341</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="R82" s="9" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="S82" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>459</v>
+        <v>341</v>
       </c>
       <c r="X82" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y82" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y82" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z82" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA82" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB82" s="10" t="s">
         <v>341</v>
@@ -11544,34 +11460,31 @@
         <v>341</v>
       </c>
       <c r="AE82" s="10" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="AF82" s="10" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AG82" s="10" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="AH82" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AI82" s="10" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="AJ82" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK82" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL82" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM82" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="83" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>292</v>
       </c>
@@ -11603,7 +11516,9 @@
       <c r="K83" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L83" s="7"/>
+      <c r="L83" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M83" s="9" t="s">
         <v>341</v>
       </c>
@@ -11629,37 +11544,37 @@
         <v>341</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="W83" s="9" t="s">
-        <v>499</v>
+        <v>341</v>
       </c>
       <c r="X83" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y83" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y83" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA83" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB83" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC83" s="10" t="s">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="AD83" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AE83" s="10" t="s">
-        <v>531</v>
+        <v>341</v>
       </c>
       <c r="AF83" s="10" t="s">
         <v>341</v>
@@ -11671,22 +11586,19 @@
         <v>341</v>
       </c>
       <c r="AI83" s="10" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="AJ83" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AK83" s="10" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
       <c r="AL83" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM83" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="84" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>295</v>
       </c>
@@ -11720,7 +11632,9 @@
       <c r="K84" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L84" s="7"/>
+      <c r="L84" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M84" s="9" t="s">
         <v>341</v>
       </c>
@@ -11731,40 +11645,40 @@
         <v>341</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>462</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T84" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U84" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V84" s="9" t="s">
-        <v>349</v>
+        <v>500</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="X84" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y84" s="9" t="s">
+      <c r="Y84" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z84" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB84" s="10" t="s">
         <v>341</v>
@@ -11776,13 +11690,13 @@
         <v>341</v>
       </c>
       <c r="AE84" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF84" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG84" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH84" s="10" t="s">
         <v>341</v>
@@ -11799,11 +11713,8 @@
       <c r="AL84" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM84" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="85" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>298</v>
       </c>
@@ -11837,7 +11748,9 @@
       <c r="K85" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L85" s="7"/>
+      <c r="L85" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M85" s="9" t="s">
         <v>341</v>
       </c>
@@ -11863,25 +11776,25 @@
         <v>341</v>
       </c>
       <c r="U85" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V85" s="9" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="W85" s="9" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="X85" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y85" s="9" t="s">
+      <c r="Y85" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z85" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA85" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB85" s="10" t="s">
         <v>341</v>
@@ -11905,22 +11818,19 @@
         <v>341</v>
       </c>
       <c r="AI85" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ85" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK85" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL85" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM85" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="86" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>301</v>
       </c>
@@ -11954,7 +11864,9 @@
       <c r="K86" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L86" s="7"/>
+      <c r="L86" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M86" s="9" t="s">
         <v>341</v>
       </c>
@@ -11980,25 +11892,25 @@
         <v>341</v>
       </c>
       <c r="U86" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V86" s="9" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="W86" s="9" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="X86" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y86" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y86" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA86" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB86" s="10" t="s">
         <v>341</v>
@@ -12022,22 +11934,19 @@
         <v>341</v>
       </c>
       <c r="AI86" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ86" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK86" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL86" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM86" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="87" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>304</v>
       </c>
@@ -12069,7 +11978,9 @@
       <c r="K87" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L87" s="7"/>
+      <c r="L87" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M87" s="9" t="s">
         <v>341</v>
       </c>
@@ -12095,25 +12006,25 @@
         <v>341</v>
       </c>
       <c r="U87" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="W87" s="9" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="X87" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y87" s="9" t="s">
+      <c r="Y87" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z87" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA87" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB87" s="10" t="s">
         <v>341</v>
@@ -12137,22 +12048,19 @@
         <v>341</v>
       </c>
       <c r="AI87" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ87" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK87" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL87" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM87" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="88" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>306</v>
       </c>
@@ -12186,7 +12094,9 @@
       <c r="K88" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L88" s="7"/>
+      <c r="L88" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M88" s="9" t="s">
         <v>341</v>
       </c>
@@ -12194,25 +12104,25 @@
         <v>341</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="S88" s="9" t="s">
         <v>341</v>
       </c>
       <c r="T88" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U88" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V88" s="9" t="s">
         <v>341</v>
@@ -12223,14 +12133,14 @@
       <c r="X88" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y88" s="9" t="s">
+      <c r="Y88" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z88" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA88" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB88" s="10" t="s">
         <v>341</v>
@@ -12242,13 +12152,13 @@
         <v>341</v>
       </c>
       <c r="AE88" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF88" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG88" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH88" s="10" t="s">
         <v>341</v>
@@ -12265,11 +12175,8 @@
       <c r="AL88" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM88" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="89" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>310</v>
       </c>
@@ -12303,7 +12210,9 @@
       <c r="K89" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L89" s="7"/>
+      <c r="L89" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M89" s="9" t="s">
         <v>341</v>
       </c>
@@ -12329,25 +12238,25 @@
         <v>341</v>
       </c>
       <c r="U89" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V89" s="9" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="W89" s="9" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="X89" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y89" s="9" t="s">
-        <v>343</v>
+        <v>343</v>
+      </c>
+      <c r="Y89" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="Z89" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA89" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB89" s="10" t="s">
         <v>341</v>
@@ -12382,11 +12291,8 @@
       <c r="AL89" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM89" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="90" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>314</v>
       </c>
@@ -12418,7 +12324,9 @@
       <c r="K90" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L90" s="7"/>
+      <c r="L90" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M90" s="9" t="s">
         <v>341</v>
       </c>
@@ -12426,43 +12334,43 @@
         <v>341</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>343</v>
+        <v>461</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="R90" s="9" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="S90" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T90" s="9" t="s">
         <v>341</v>
       </c>
       <c r="U90" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V90" s="9" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="W90" s="9" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="X90" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y90" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y90" s="10" t="s">
         <v>343</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA90" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB90" s="10" t="s">
         <v>341</v>
@@ -12474,13 +12382,13 @@
         <v>341</v>
       </c>
       <c r="AE90" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AF90" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG90" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH90" s="10" t="s">
         <v>341</v>
@@ -12497,11 +12405,8 @@
       <c r="AL90" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM90" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="91" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>316</v>
       </c>
@@ -12533,7 +12438,9 @@
       <c r="K91" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L91" s="7"/>
+      <c r="L91" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="M91" s="9" t="s">
         <v>341</v>
       </c>
@@ -12541,19 +12448,19 @@
         <v>341</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T91" s="9" t="s">
         <v>341</v>
@@ -12570,14 +12477,14 @@
       <c r="X91" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Y91" s="9" t="s">
+      <c r="Y91" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z91" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA91" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB91" s="10" t="s">
         <v>341</v>
@@ -12589,13 +12496,13 @@
         <v>341</v>
       </c>
       <c r="AE91" s="10" t="s">
-        <v>341</v>
+        <v>523</v>
       </c>
       <c r="AF91" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AG91" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AH91" s="10" t="s">
         <v>341</v>
@@ -12612,11 +12519,8 @@
       <c r="AL91" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AM91" s="10" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="92" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>320</v>
       </c>
@@ -12650,9 +12554,11 @@
       <c r="K92" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L92" s="7"/>
+      <c r="L92" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="M92" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="N92" s="9" t="s">
         <v>341</v>
@@ -12676,37 +12582,37 @@
         <v>341</v>
       </c>
       <c r="U92" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="V92" s="9" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="W92" s="9" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="X92" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y92" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y92" s="10" t="s">
         <v>341</v>
       </c>
       <c r="Z92" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA92" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB92" s="10" t="s">
         <v>341</v>
       </c>
       <c r="AC92" s="10" t="s">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="AD92" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE92" s="10" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="AF92" s="10" t="s">
         <v>341</v>
@@ -12718,36 +12624,33 @@
         <v>341</v>
       </c>
       <c r="AI92" s="10" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="AJ92" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK92" s="10" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="AL92" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM92" s="10" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O92 T1:T92 X1:X92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N92 S1:S92 W1:W92">
       <formula1>"def,indef,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z92">
       <formula1>"interpunc,word,mixed,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U92">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T92">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L92 AB1:AB92 S1:S92 N1:N92 P1:P92 Y1:Z92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K92 AA1:AA92 R1:R92 M1:M92 O1:O92 X1:Y92">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12847,4 +12750,171 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId92"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16 A7 A2 A4 A13:A14">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>"m,f,d,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>"one,more,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>"interpunc,word,mixed,none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A8 A12">
+      <formula1>"def,indef,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="362">
   <si>
     <t>Identifier</t>
   </si>
@@ -1054,9 +1054,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Vanity Fair: A Novel without a Hero</t>
@@ -1521,9 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC90" sqref="AC90"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,37 +1625,37 @@
         <v>340</v>
       </c>
       <c r="AC1" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="AI1" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>357</v>
-      </c>
       <c r="AK1" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
@@ -1810,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>341</v>
@@ -2286,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>341</v>
@@ -2403,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>341</v>
@@ -2522,7 +2519,7 @@
         <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>341</v>
@@ -2627,7 +2624,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>50</v>
@@ -2639,7 +2636,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>341</v>
@@ -2873,7 +2870,7 @@
         <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>341</v>
@@ -2980,7 +2977,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>59</v>
@@ -3464,7 +3461,7 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>341</v>
@@ -4176,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>341</v>
@@ -4295,7 +4292,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>341</v>
@@ -5116,7 +5113,7 @@
         <v>47</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>341</v>
@@ -5354,7 +5351,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>341</v>
@@ -5459,7 +5456,7 @@
         <v>130</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>131</v>
@@ -5471,7 +5468,7 @@
         <v>31</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>341</v>
@@ -5588,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>341</v>
@@ -5812,7 +5809,7 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>95</v>
@@ -5824,7 +5821,7 @@
         <v>47</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>341</v>
@@ -7119,7 +7116,7 @@
         <v>47</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>341</v>
@@ -8067,7 +8064,7 @@
         <v>31</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L56" s="12" t="s">
         <v>341</v>
@@ -8541,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>341</v>
@@ -9134,7 +9131,7 @@
         <v>17</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L65" s="12" t="s">
         <v>341</v>
@@ -9239,7 +9236,7 @@
         <v>238</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>239</v>
@@ -10538,7 +10535,7 @@
         <v>275</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>276</v>
@@ -10891,7 +10888,7 @@
         <v>285</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>229</v>
@@ -11603,7 +11600,7 @@
         <v>302</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>303</v>
@@ -12075,7 +12072,7 @@
         <v>311</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>315</v>
@@ -12323,7 +12320,7 @@
         <v>17</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L92" s="12" t="s">
         <v>341</v>
@@ -12424,7 +12421,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K92 O1:O92 AB2:AM92 X1:Y1 M1:M92 R1:R92 AA1:AA92 S2:Z92 L2:L92 N2:N92 P2:Q92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q92 O1:O92 AB2:AM92 X1:Y1 M1:M92 R1:R92 AA1:AA92 S2:Z92 L2:L92 N2:N92 K1:K92">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH93:AH1048576 AJ93:AJ1048576 AL93:AL1048576 AD93:AD1048576 AL1 AJ1 AH1 AF1 AD1 AF93:AF1048576">
@@ -12629,52 +12626,52 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="610">
   <si>
     <t>Identifier</t>
   </si>
@@ -1449,9 +1449,6 @@
     <t>otherEntityII</t>
   </si>
   <si>
-    <t>otherEntitityIIDeterminer</t>
-  </si>
-  <si>
     <t>adventures</t>
   </si>
   <si>
@@ -1849,6 +1846,18 @@
   </si>
   <si>
     <t>T33</t>
+  </si>
+  <si>
+    <t>otherEntityIIAttribution</t>
+  </si>
+  <si>
+    <t>otherEntityIIDeterminer</t>
+  </si>
+  <si>
+    <t>otherEntityDeterminer</t>
+  </si>
+  <si>
+    <t>otherEntityAttribution</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1988,6 +1997,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7974,11 +7992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC322"/>
+  <dimension ref="A1:BJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8004,7 +8022,7 @@
     <col min="55" max="55" width="10.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8021,10 +8039,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -8051,13 +8069,13 @@
         <v>230</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>231</v>
@@ -8078,19 +8096,19 @@
         <v>236</v>
       </c>
       <c r="Y1" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="AD1" s="7" t="s">
         <v>237</v>
@@ -8098,20 +8116,20 @@
       <c r="AE1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>240</v>
+      <c r="AF1" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>609</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AI1" s="7" t="s">
-        <v>473</v>
+      <c r="AI1" s="23" t="s">
+        <v>607</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>240</v>
+        <v>606</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>241</v>
@@ -8132,10 +8150,10 @@
         <v>252</v>
       </c>
       <c r="AQ1" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AS1" s="7" t="s">
         <v>250</v>
@@ -8162,16 +8180,19 @@
         <v>258</v>
       </c>
       <c r="BA1" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="BB1" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="BC1" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="23"/>
+      <c r="BJ1" s="23"/>
+    </row>
+    <row r="2" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -8191,7 +8212,7 @@
         <v>1840</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>12</v>
@@ -8231,7 +8252,7 @@
         <v>245</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>245</v>
@@ -8263,14 +8284,14 @@
       <c r="AE2" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>320</v>
@@ -8336,7 +8357,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -8354,7 +8375,7 @@
         <v>1841</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>260</v>
@@ -8426,10 +8447,10 @@
       <c r="AE3" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="AF3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG3" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH3" s="9" t="s">
@@ -8496,10 +8517,10 @@
         <v>245</v>
       </c>
       <c r="BC3" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
@@ -8519,7 +8540,7 @@
         <v>1841</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>261</v>
@@ -8591,10 +8612,10 @@
       <c r="AE4" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AF4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG4" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH4" s="9" t="s">
@@ -8664,7 +8685,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
@@ -8684,7 +8705,7 @@
         <v>1844</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>22</v>
@@ -8756,10 +8777,10 @@
       <c r="AE5" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AF5" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH5" s="9" t="s">
@@ -8829,7 +8850,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +8870,7 @@
         <v>1845</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>26</v>
@@ -8921,10 +8942,10 @@
       <c r="AE6" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH6" s="9" t="s">
@@ -8994,7 +9015,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
@@ -9014,7 +9035,7 @@
         <v>1846</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>28</v>
@@ -9086,10 +9107,10 @@
       <c r="AE7" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH7" s="9" t="s">
@@ -9159,7 +9180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -9177,7 +9198,7 @@
         <v>1847</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>31</v>
@@ -9214,10 +9235,10 @@
         <v>307</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>245</v>
@@ -9249,10 +9270,10 @@
       <c r="AE8" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="AF8" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AF8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG8" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH8" s="9" t="s">
@@ -9322,7 +9343,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
@@ -9342,7 +9363,7 @@
         <v>1847</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>468</v>
@@ -9414,10 +9435,10 @@
       <c r="AE9" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF9" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AF9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG9" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH9" s="9" t="s">
@@ -9484,10 +9505,10 @@
         <v>461</v>
       </c>
       <c r="BC9" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -9505,7 +9526,7 @@
         <v>1848</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>311</v>
@@ -9521,7 +9542,7 @@
         <v>307</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>245</v>
@@ -9577,10 +9598,10 @@
       <c r="AE10" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AF10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG10" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH10" s="9" t="s">
@@ -9647,10 +9668,10 @@
         <v>461</v>
       </c>
       <c r="BC10" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
@@ -9668,7 +9689,7 @@
         <v>1848</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>38</v>
@@ -9708,7 +9729,7 @@
         <v>245</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>245</v>
@@ -9740,10 +9761,10 @@
       <c r="AE11" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AF11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG11" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH11" s="9" t="s">
@@ -9810,10 +9831,10 @@
         <v>245</v>
       </c>
       <c r="BC11" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
@@ -9831,7 +9852,7 @@
         <v>1848</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>41</v>
@@ -9903,10 +9924,10 @@
       <c r="AE12" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AF12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG12" s="9" t="s">
+      <c r="AF12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG12" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH12" s="9" t="s">
@@ -9934,7 +9955,7 @@
         <v>467</v>
       </c>
       <c r="AP12" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>245</v>
@@ -9973,10 +9994,10 @@
         <v>466</v>
       </c>
       <c r="BC12" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
@@ -9996,7 +10017,7 @@
         <v>1849</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>312</v>
@@ -10048,10 +10069,10 @@
         <v>334</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA13" s="9" t="s">
         <v>245</v>
@@ -10068,14 +10089,14 @@
       <c r="AE13" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="AF13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG13" s="9" t="s">
+      <c r="AF13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG13" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>320</v>
@@ -10132,10 +10153,10 @@
         <v>465</v>
       </c>
       <c r="BC13" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
@@ -10153,7 +10174,7 @@
         <v>1850</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>46</v>
@@ -10223,12 +10244,12 @@
         <v>345</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF14" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF14" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG14" s="9" t="s">
+      <c r="AG14" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH14" s="9" t="s">
@@ -10295,10 +10316,10 @@
         <v>245</v>
       </c>
       <c r="BC14" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>48</v>
       </c>
@@ -10316,7 +10337,7 @@
         <v>1851</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>50</v>
@@ -10386,16 +10407,16 @@
         <v>345</v>
       </c>
       <c r="AE15" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH15" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="AI15" s="9" t="s">
         <v>340</v>
@@ -10458,10 +10479,10 @@
         <v>245</v>
       </c>
       <c r="BC15" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>52</v>
       </c>
@@ -10481,7 +10502,7 @@
         <v>1851</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>53</v>
@@ -10553,10 +10574,10 @@
       <c r="AE16" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="AF16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG16" s="9" t="s">
+      <c r="AF16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG16" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH16" s="9" t="s">
@@ -10646,7 +10667,7 @@
         <v>1853</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>55</v>
@@ -10718,10 +10739,10 @@
       <c r="AE17" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF17" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AF17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG17" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH17" s="9" t="s">
@@ -10788,7 +10809,7 @@
         <v>245</v>
       </c>
       <c r="BC17" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -10811,7 +10832,7 @@
         <v>1853</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>57</v>
@@ -10883,10 +10904,10 @@
       <c r="AE18" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF18" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG18" s="9" t="s">
+      <c r="AF18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG18" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH18" s="9" t="s">
@@ -10974,7 +10995,7 @@
         <v>1854</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>60</v>
@@ -11046,10 +11067,10 @@
       <c r="AE19" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="AF19" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG19" s="9" t="s">
+      <c r="AF19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG19" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH19" s="9" t="s">
@@ -11139,7 +11160,7 @@
         <v>1855</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>63</v>
@@ -11211,10 +11232,10 @@
       <c r="AE20" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG20" s="9" t="s">
+      <c r="AF20" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG20" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH20" s="9" t="s">
@@ -11302,7 +11323,7 @@
         <v>1856</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>315</v>
@@ -11374,10 +11395,10 @@
       <c r="AE21" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="AF21" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG21" s="9" t="s">
+      <c r="AF21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG21" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH21" s="9" t="s">
@@ -11444,7 +11465,7 @@
         <v>461</v>
       </c>
       <c r="BC21" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -11467,7 +11488,7 @@
         <v>1856</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>66</v>
@@ -11539,10 +11560,10 @@
       <c r="AE22" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="AF22" s="9" t="s">
+      <c r="AF22" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG22" s="9" t="s">
+      <c r="AG22" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH22" s="9" t="s">
@@ -11609,7 +11630,7 @@
         <v>245</v>
       </c>
       <c r="BC22" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -11630,7 +11651,7 @@
         <v>1857</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>316</v>
@@ -11702,10 +11723,10 @@
       <c r="AE23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF23" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG23" s="9" t="s">
+      <c r="AF23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG23" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH23" s="9" t="s">
@@ -11795,7 +11816,7 @@
         <v>1860</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>68</v>
@@ -11835,7 +11856,7 @@
         <v>357</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V24" s="9" t="s">
         <v>245</v>
@@ -11867,10 +11888,10 @@
       <c r="AE24" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG24" s="9" t="s">
+      <c r="AF24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG24" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH24" s="9" t="s">
@@ -11937,7 +11958,7 @@
         <v>245</v>
       </c>
       <c r="BC24" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -11960,7 +11981,7 @@
         <v>1861</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>71</v>
@@ -12000,7 +12021,7 @@
         <v>245</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V25" s="9" t="s">
         <v>307</v>
@@ -12032,10 +12053,10 @@
       <c r="AE25" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG25" s="9" t="s">
+      <c r="AF25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG25" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH25" s="9" t="s">
@@ -12102,7 +12123,7 @@
         <v>245</v>
       </c>
       <c r="BC25" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="72" x14ac:dyDescent="0.3">
@@ -12123,7 +12144,7 @@
         <v>1862</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>74</v>
@@ -12163,7 +12184,7 @@
         <v>359</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V26" s="9" t="s">
         <v>245</v>
@@ -12195,10 +12216,10 @@
       <c r="AE26" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="AF26" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG26" s="9" t="s">
+      <c r="AF26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG26" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH26" s="9" t="s">
@@ -12286,7 +12307,7 @@
         <v>1863</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>77</v>
@@ -12323,10 +12344,10 @@
         <v>307</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V27" s="9" t="s">
         <v>245</v>
@@ -12338,10 +12359,10 @@
         <v>334</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AA27" s="9" t="s">
         <v>245</v>
@@ -12358,10 +12379,10 @@
       <c r="AE27" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF27" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG27" s="9" t="s">
+      <c r="AF27" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG27" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH27" s="9" t="s">
@@ -12428,7 +12449,7 @@
         <v>245</v>
       </c>
       <c r="BC27" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -12449,7 +12470,7 @@
         <v>1863</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>266</v>
@@ -12521,10 +12542,10 @@
       <c r="AE28" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AF28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG28" s="9" t="s">
+      <c r="AF28" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG28" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH28" s="9" t="s">
@@ -12614,7 +12635,7 @@
         <v>1863</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>269</v>
@@ -12684,16 +12705,16 @@
         <v>345</v>
       </c>
       <c r="AE29" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH29" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="AF29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH29" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="AI29" s="9" t="s">
         <v>245</v>
@@ -12756,7 +12777,7 @@
         <v>245</v>
       </c>
       <c r="BC29" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -12777,7 +12798,7 @@
         <v>1864</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>80</v>
@@ -12849,10 +12870,10 @@
       <c r="AE30" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF30" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG30" s="9" t="s">
+      <c r="AF30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG30" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH30" s="9" t="s">
@@ -12919,7 +12940,7 @@
         <v>245</v>
       </c>
       <c r="BC30" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:55" ht="86.4" x14ac:dyDescent="0.3">
@@ -12940,7 +12961,7 @@
         <v>1864</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>272</v>
@@ -13012,10 +13033,10 @@
       <c r="AE31" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF31" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG31" s="9" t="s">
+      <c r="AF31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG31" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH31" s="9" t="s">
@@ -13105,7 +13126,7 @@
         <v>1865</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>83</v>
@@ -13145,7 +13166,7 @@
         <v>245</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V32" s="9" t="s">
         <v>245</v>
@@ -13160,7 +13181,7 @@
         <v>245</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AA32" s="9" t="s">
         <v>245</v>
@@ -13177,10 +13198,10 @@
       <c r="AE32" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF32" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG32" s="9" t="s">
+      <c r="AF32" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG32" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH32" s="9" t="s">
@@ -13247,7 +13268,7 @@
         <v>245</v>
       </c>
       <c r="BC32" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:55" ht="72" x14ac:dyDescent="0.3">
@@ -13268,7 +13289,7 @@
         <v>1865</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>85</v>
@@ -13340,10 +13361,10 @@
       <c r="AE33" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="AF33" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG33" s="9" t="s">
+      <c r="AF33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG33" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH33" s="9" t="s">
@@ -13410,7 +13431,7 @@
         <v>245</v>
       </c>
       <c r="BC33" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -13433,7 +13454,7 @@
         <v>1866</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>88</v>
@@ -13505,10 +13526,10 @@
       <c r="AE34" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF34" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG34" s="9" t="s">
+      <c r="AF34" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG34" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH34" s="9" t="s">
@@ -13598,7 +13619,7 @@
         <v>1867</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>90</v>
@@ -13623,7 +13644,7 @@
         <v>320</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>245</v>
@@ -13670,10 +13691,10 @@
       <c r="AE35" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="AF35" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG35" s="9" t="s">
+      <c r="AF35" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG35" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH35" s="9" t="s">
@@ -13761,7 +13782,7 @@
         <v>1870</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>322</v>
@@ -13831,12 +13852,12 @@
         <v>331</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="AF36" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG36" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF36" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG36" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH36" s="9" t="s">
@@ -13924,7 +13945,7 @@
         <v>1870</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>95</v>
@@ -13996,10 +14017,10 @@
       <c r="AE37" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF37" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG37" s="9" t="s">
+      <c r="AF37" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG37" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH37" s="9" t="s">
@@ -14087,7 +14108,7 @@
         <v>1871</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>323</v>
@@ -14127,7 +14148,7 @@
         <v>245</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V38" s="9" t="s">
         <v>245</v>
@@ -14157,16 +14178,16 @@
         <v>345</v>
       </c>
       <c r="AE38" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF38" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH38" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="AF38" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG38" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH38" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="AI38" s="9" t="s">
         <v>245</v>
@@ -14252,7 +14273,7 @@
         <v>1872</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>98</v>
@@ -14324,10 +14345,10 @@
       <c r="AE39" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF39" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG39" s="9" t="s">
+      <c r="AF39" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG39" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH39" s="9" t="s">
@@ -14349,7 +14370,7 @@
         <v>307</v>
       </c>
       <c r="AN39" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO39" s="11" t="s">
         <v>245</v>
@@ -14394,7 +14415,7 @@
         <v>462</v>
       </c>
       <c r="BC39" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -14415,7 +14436,7 @@
         <v>1872</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>248</v>
@@ -14487,10 +14508,10 @@
       <c r="AE40" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AF40" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG40" s="9" t="s">
+      <c r="AF40" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG40" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH40" s="9" t="s">
@@ -14578,7 +14599,7 @@
         <v>1874</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>371</v>
@@ -14650,10 +14671,10 @@
       <c r="AE41" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="AF41" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG41" s="9" t="s">
+      <c r="AF41" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG41" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH41" s="9" t="s">
@@ -14720,7 +14741,7 @@
         <v>461</v>
       </c>
       <c r="BC41" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -14741,7 +14762,7 @@
         <v>1874</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>103</v>
@@ -14813,10 +14834,10 @@
       <c r="AE42" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF42" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG42" s="9" t="s">
+      <c r="AF42" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG42" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH42" s="9" t="s">
@@ -14904,7 +14925,7 @@
         <v>1874</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>277</v>
@@ -14976,10 +14997,10 @@
       <c r="AE43" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF43" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG43" s="9" t="s">
+      <c r="AF43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG43" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH43" s="9" t="s">
@@ -15046,7 +15067,7 @@
         <v>245</v>
       </c>
       <c r="BC43" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15067,7 +15088,7 @@
         <v>1876</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>375</v>
@@ -15139,10 +15160,10 @@
       <c r="AE44" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AF44" s="9" t="s">
+      <c r="AF44" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG44" s="9" t="s">
+      <c r="AG44" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH44" s="9" t="s">
@@ -15230,7 +15251,7 @@
         <v>1877</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>108</v>
@@ -15302,10 +15323,10 @@
       <c r="AE45" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF45" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG45" s="9" t="s">
+      <c r="AF45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG45" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH45" s="9" t="s">
@@ -15393,7 +15414,7 @@
         <v>1880</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>111</v>
@@ -15465,10 +15486,10 @@
       <c r="AE46" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF46" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG46" s="9" t="s">
+      <c r="AF46" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG46" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH46" s="9" t="s">
@@ -15558,7 +15579,7 @@
         <v>1882</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>381</v>
@@ -15630,10 +15651,10 @@
       <c r="AE47" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AF47" s="9" t="s">
+      <c r="AF47" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="AG47" s="9" t="s">
+      <c r="AG47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH47" s="9" t="s">
@@ -15723,7 +15744,7 @@
         <v>1883</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>383</v>
@@ -15795,10 +15816,10 @@
       <c r="AE48" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF48" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG48" s="9" t="s">
+      <c r="AF48" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG48" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH48" s="9" t="s">
@@ -15888,7 +15909,7 @@
         <v>1883</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>117</v>
@@ -15960,10 +15981,10 @@
       <c r="AE49" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF49" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG49" s="9" t="s">
+      <c r="AF49" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG49" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH49" s="9" t="s">
@@ -16030,7 +16051,7 @@
         <v>245</v>
       </c>
       <c r="BC49" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
@@ -16053,7 +16074,7 @@
         <v>1884</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>119</v>
@@ -16125,10 +16146,10 @@
       <c r="AE50" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF50" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG50" s="9" t="s">
+      <c r="AF50" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH50" s="9" t="s">
@@ -16218,7 +16239,7 @@
         <v>1885</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>388</v>
@@ -16258,7 +16279,7 @@
         <v>245</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V51" s="9" t="s">
         <v>245</v>
@@ -16273,7 +16294,7 @@
         <v>245</v>
       </c>
       <c r="Z51" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA51" s="9" t="s">
         <v>307</v>
@@ -16288,16 +16309,16 @@
         <v>345</v>
       </c>
       <c r="AE51" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH51" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="AF51" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG51" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH51" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="AI51" s="9" t="s">
         <v>320</v>
@@ -16360,7 +16381,7 @@
         <v>467</v>
       </c>
       <c r="BC51" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -16381,7 +16402,7 @@
         <v>1886</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>390</v>
@@ -16418,10 +16439,10 @@
         <v>307</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V52" s="9" t="s">
         <v>307</v>
@@ -16453,14 +16474,14 @@
       <c r="AE52" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AF52" s="9" t="s">
+      <c r="AF52" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG52" s="9" t="s">
+      <c r="AG52" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AI52" s="9" t="s">
         <v>320</v>
@@ -16546,7 +16567,7 @@
         <v>1887</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>391</v>
@@ -16618,10 +16639,10 @@
       <c r="AE53" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF53" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG53" s="9" t="s">
+      <c r="AF53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG53" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH53" s="9" t="s">
@@ -16711,7 +16732,7 @@
         <v>1887</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>126</v>
@@ -16783,10 +16804,10 @@
       <c r="AE54" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="AF54" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG54" s="9" t="s">
+      <c r="AF54" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG54" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH54" s="9" t="s">
@@ -16853,7 +16874,7 @@
         <v>245</v>
       </c>
       <c r="BC54" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -16874,7 +16895,7 @@
         <v>1887</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>128</v>
@@ -16946,10 +16967,10 @@
       <c r="AE55" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF55" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG55" s="9" t="s">
+      <c r="AF55" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG55" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH55" s="9" t="s">
@@ -17039,7 +17060,7 @@
         <v>1889</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>131</v>
@@ -17111,10 +17132,10 @@
       <c r="AE56" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="AF56" s="9" t="s">
+      <c r="AF56" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG56" s="9" t="s">
+      <c r="AG56" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH56" s="9" t="s">
@@ -17181,7 +17202,7 @@
         <v>245</v>
       </c>
       <c r="BC56" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -17204,7 +17225,7 @@
         <v>1890</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>134</v>
@@ -17274,16 +17295,16 @@
         <v>345</v>
       </c>
       <c r="AE57" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF57" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH57" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="AF57" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG57" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH57" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="AI57" s="9" t="s">
         <v>245</v>
@@ -17346,7 +17367,7 @@
         <v>245</v>
       </c>
       <c r="BC57" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -17367,7 +17388,7 @@
         <v>1890</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>137</v>
@@ -17439,10 +17460,10 @@
       <c r="AE58" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="AF58" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG58" s="9" t="s">
+      <c r="AF58" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG58" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH58" s="9" t="s">
@@ -17532,7 +17553,7 @@
         <v>1891</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>140</v>
@@ -17572,7 +17593,7 @@
         <v>245</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V59" s="9" t="s">
         <v>245</v>
@@ -17587,7 +17608,7 @@
         <v>245</v>
       </c>
       <c r="Z59" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA59" s="9" t="s">
         <v>245</v>
@@ -17604,10 +17625,10 @@
       <c r="AE59" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF59" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG59" s="9" t="s">
+      <c r="AF59" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG59" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH59" s="9" t="s">
@@ -17674,7 +17695,7 @@
         <v>245</v>
       </c>
       <c r="BC59" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -17697,7 +17718,7 @@
         <v>1891</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>399</v>
@@ -17769,10 +17790,10 @@
       <c r="AE60" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF60" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG60" s="9" t="s">
+      <c r="AF60" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG60" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH60" s="9" t="s">
@@ -17839,7 +17860,7 @@
         <v>461</v>
       </c>
       <c r="BC60" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -17862,7 +17883,7 @@
         <v>1892</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>145</v>
@@ -17934,10 +17955,10 @@
       <c r="AE61" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF61" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG61" s="9" t="s">
+      <c r="AF61" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG61" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH61" s="9" t="s">
@@ -18025,7 +18046,7 @@
         <v>1893</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>402</v>
@@ -18095,16 +18116,16 @@
         <v>345</v>
       </c>
       <c r="AE62" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF62" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH62" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="AF62" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG62" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH62" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="AI62" s="9" t="s">
         <v>320</v>
@@ -18188,7 +18209,7 @@
         <v>1893</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>282</v>
@@ -18258,16 +18279,16 @@
         <v>345</v>
       </c>
       <c r="AE63" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF63" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG63" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH63" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AF63" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG63" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH63" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AI63" s="9" t="s">
         <v>320</v>
@@ -18330,7 +18351,7 @@
         <v>245</v>
       </c>
       <c r="BC63" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -18353,7 +18374,7 @@
         <v>1894</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>150</v>
@@ -18425,10 +18446,10 @@
       <c r="AE64" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF64" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG64" s="9" t="s">
+      <c r="AF64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG64" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH64" s="9" t="s">
@@ -18518,7 +18539,7 @@
         <v>1894</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>153</v>
@@ -18558,7 +18579,7 @@
         <v>405</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V65" s="9" t="s">
         <v>307</v>
@@ -18573,7 +18594,7 @@
         <v>245</v>
       </c>
       <c r="Z65" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA65" s="9" t="s">
         <v>245</v>
@@ -18590,10 +18611,10 @@
       <c r="AE65" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF65" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG65" s="9" t="s">
+      <c r="AF65" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG65" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH65" s="9" t="s">
@@ -18683,7 +18704,7 @@
         <v>1895</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>156</v>
@@ -18755,10 +18776,10 @@
       <c r="AE66" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF66" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG66" s="9" t="s">
+      <c r="AF66" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG66" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH66" s="9" t="s">
@@ -18848,7 +18869,7 @@
         <v>1895</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>159</v>
@@ -18920,10 +18941,10 @@
       <c r="AE67" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF67" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG67" s="9" t="s">
+      <c r="AF67" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG67" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH67" s="9" t="s">
@@ -19013,7 +19034,7 @@
         <v>1895</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>407</v>
@@ -19083,16 +19104,16 @@
         <v>345</v>
       </c>
       <c r="AE68" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF68" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH68" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="AF68" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG68" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH68" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="AI68" s="9" t="s">
         <v>340</v>
@@ -19155,7 +19176,7 @@
         <v>245</v>
       </c>
       <c r="BC68" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -19176,7 +19197,7 @@
         <v>1895</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H69" s="16" t="s">
         <v>285</v>
@@ -19248,10 +19269,10 @@
       <c r="AE69" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF69" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG69" s="9" t="s">
+      <c r="AF69" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG69" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH69" s="9" t="s">
@@ -19318,7 +19339,7 @@
         <v>461</v>
       </c>
       <c r="BC69" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -19339,7 +19360,7 @@
         <v>1895</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H70" s="16" t="s">
         <v>288</v>
@@ -19355,7 +19376,7 @@
         <v>307</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>245</v>
@@ -19411,10 +19432,10 @@
       <c r="AE70" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF70" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG70" s="9" t="s">
+      <c r="AF70" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG70" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH70" s="9" t="s">
@@ -19481,7 +19502,7 @@
         <v>245</v>
       </c>
       <c r="BC70" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="71" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -19504,7 +19525,7 @@
         <v>1896</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H71" s="16" t="s">
         <v>164</v>
@@ -19576,10 +19597,10 @@
       <c r="AE71" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF71" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG71" s="9" t="s">
+      <c r="AF71" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG71" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH71" s="9" t="s">
@@ -19646,7 +19667,7 @@
         <v>245</v>
       </c>
       <c r="BC71" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
@@ -19667,7 +19688,7 @@
         <v>1896</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H72" s="16" t="s">
         <v>167</v>
@@ -19739,10 +19760,10 @@
       <c r="AE72" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="AF72" s="9" t="s">
+      <c r="AF72" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG72" s="9" t="s">
+      <c r="AG72" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH72" s="9" t="s">
@@ -19770,7 +19791,7 @@
         <v>470</v>
       </c>
       <c r="AP72" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>245</v>
@@ -19830,7 +19851,7 @@
         <v>1897</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>413</v>
@@ -19902,10 +19923,10 @@
       <c r="AE73" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF73" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG73" s="9" t="s">
+      <c r="AF73" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG73" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH73" s="9" t="s">
@@ -19995,7 +20016,7 @@
         <v>1897</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>291</v>
@@ -20011,7 +20032,7 @@
         <v>307</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N74" s="9" t="s">
         <v>245</v>
@@ -20067,10 +20088,10 @@
       <c r="AE74" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="AF74" s="9" t="s">
+      <c r="AF74" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG74" s="9" t="s">
+      <c r="AG74" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH74" s="9" t="s">
@@ -20160,7 +20181,7 @@
         <v>1897</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>415</v>
@@ -20232,14 +20253,14 @@
       <c r="AE75" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AF75" s="9" t="s">
+      <c r="AF75" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG75" s="9" t="s">
+      <c r="AG75" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AI75" s="9" t="s">
         <v>340</v>
@@ -20302,7 +20323,7 @@
         <v>461</v>
       </c>
       <c r="BC75" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -20325,7 +20346,7 @@
         <v>1898</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>173</v>
@@ -20397,10 +20418,10 @@
       <c r="AE76" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF76" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG76" s="9" t="s">
+      <c r="AF76" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG76" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH76" s="9" t="s">
@@ -20488,7 +20509,7 @@
         <v>1900</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H77" s="16" t="s">
         <v>177</v>
@@ -20560,10 +20581,10 @@
       <c r="AE77" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="AF77" s="9" t="s">
+      <c r="AF77" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG77" s="9" t="s">
+      <c r="AG77" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH77" s="9" t="s">
@@ -20653,7 +20674,7 @@
         <v>1900</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>180</v>
@@ -20725,10 +20746,10 @@
       <c r="AE78" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF78" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG78" s="9" t="s">
+      <c r="AF78" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG78" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH78" s="9" t="s">
@@ -20816,7 +20837,7 @@
         <v>1900</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>183</v>
@@ -20853,10 +20874,10 @@
         <v>307</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V79" s="9" t="s">
         <v>245</v>
@@ -20868,10 +20889,10 @@
         <v>329</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Z79" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AA79" s="9" t="s">
         <v>245</v>
@@ -20888,10 +20909,10 @@
       <c r="AE79" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF79" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG79" s="9" t="s">
+      <c r="AF79" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG79" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH79" s="9" t="s">
@@ -20958,7 +20979,7 @@
         <v>245</v>
       </c>
       <c r="BC79" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:55" ht="72" x14ac:dyDescent="0.3">
@@ -20979,7 +21000,7 @@
         <v>1901</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H80" s="16" t="s">
         <v>186</v>
@@ -21051,10 +21072,10 @@
       <c r="AE80" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF80" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG80" s="9" t="s">
+      <c r="AF80" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG80" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH80" s="9" t="s">
@@ -21144,7 +21165,7 @@
         <v>1901</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>294</v>
@@ -21216,10 +21237,10 @@
       <c r="AE81" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="AF81" s="9" t="s">
+      <c r="AF81" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG81" s="9" t="s">
+      <c r="AG81" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH81" s="9" t="s">
@@ -21286,7 +21307,7 @@
         <v>245</v>
       </c>
       <c r="BC81" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -21309,7 +21330,7 @@
         <v>1902</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>190</v>
@@ -21381,10 +21402,10 @@
       <c r="AE82" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF82" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG82" s="9" t="s">
+      <c r="AF82" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG82" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH82" s="9" t="s">
@@ -21472,7 +21493,7 @@
         <v>1903</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H83" s="16" t="s">
         <v>424</v>
@@ -21488,7 +21509,7 @@
         <v>307</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N83" s="9" t="s">
         <v>307</v>
@@ -21497,7 +21518,7 @@
         <v>320</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>245</v>
@@ -21544,10 +21565,10 @@
       <c r="AE83" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="AF83" s="9" t="s">
+      <c r="AF83" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG83" s="9" t="s">
+      <c r="AG83" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH83" s="9" t="s">
@@ -21614,7 +21635,7 @@
         <v>461</v>
       </c>
       <c r="BC83" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -21637,7 +21658,7 @@
         <v>1906</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>192</v>
@@ -21709,10 +21730,10 @@
       <c r="AE84" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="AF84" s="9" t="s">
+      <c r="AF84" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG84" s="9" t="s">
+      <c r="AG84" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH84" s="9" t="s">
@@ -21802,7 +21823,7 @@
         <v>1907</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>298</v>
@@ -21874,10 +21895,10 @@
       <c r="AE85" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="AF85" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG85" s="9" t="s">
+      <c r="AF85" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG85" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH85" s="9" t="s">
@@ -21967,7 +21988,7 @@
         <v>1907</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>196</v>
@@ -22039,10 +22060,10 @@
       <c r="AE86" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF86" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG86" s="9" t="s">
+      <c r="AF86" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG86" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH86" s="9" t="s">
@@ -22130,7 +22151,7 @@
         <v>1908</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>431</v>
@@ -22200,16 +22221,16 @@
         <v>345</v>
       </c>
       <c r="AE87" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF87" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG87" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH87" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AF87" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG87" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH87" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AI87" s="9" t="s">
         <v>340</v>
@@ -22272,7 +22293,7 @@
         <v>245</v>
       </c>
       <c r="BC87" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -22293,7 +22314,7 @@
         <v>1909</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>299</v>
@@ -22365,10 +22386,10 @@
       <c r="AE88" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF88" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG88" s="9" t="s">
+      <c r="AF88" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG88" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH88" s="9" t="s">
@@ -22458,7 +22479,7 @@
         <v>1909</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>202</v>
@@ -22530,14 +22551,14 @@
       <c r="AE89" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="AF89" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG89" s="9" t="s">
+      <c r="AF89" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG89" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AH89" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI89" s="9" t="s">
         <v>320</v>
@@ -22600,7 +22621,7 @@
         <v>245</v>
       </c>
       <c r="BC89" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:55" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -22623,7 +22644,7 @@
         <v>1910</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>204</v>
@@ -22788,7 +22809,7 @@
         <v>1911</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>207</v>
@@ -22860,10 +22881,10 @@
       <c r="AE91" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF91" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG91" s="9" t="s">
+      <c r="AF91" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG91" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH91" s="9" t="s">
@@ -22930,7 +22951,7 @@
         <v>245</v>
       </c>
       <c r="BC91" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -22953,7 +22974,7 @@
         <v>1912</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>210</v>
@@ -23025,10 +23046,10 @@
       <c r="AE92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="AF92" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG92" s="9" t="s">
+      <c r="AF92" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG92" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AH92" s="9" t="s">
@@ -23118,7 +23139,7 @@
         <v>1912</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>301</v>
@@ -23187,7 +23208,7 @@
         <v>345</v>
       </c>
       <c r="AE93" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF93" s="11" t="s">
         <v>320</v>
@@ -23196,7 +23217,7 @@
         <v>307</v>
       </c>
       <c r="AH93" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AI93" s="11" t="s">
         <v>320</v>
@@ -23259,7 +23280,7 @@
         <v>245</v>
       </c>
       <c r="BC93" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -23282,7 +23303,7 @@
         <v>1915</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>247</v>
@@ -23446,7 +23467,7 @@
         <v>1917</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>439</v>
@@ -23587,7 +23608,7 @@
         <v>245</v>
       </c>
       <c r="BC95" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -23610,7 +23631,7 @@
         <v>1918</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H96" s="16" t="s">
         <v>214</v>
@@ -23774,7 +23795,7 @@
         <v>1919</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>217</v>
@@ -23915,7 +23936,7 @@
         <v>245</v>
       </c>
       <c r="BC97" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
@@ -23936,7 +23957,7 @@
         <v>1919</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>246</v>
@@ -23951,7 +23972,7 @@
         <v>307</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N98" s="11" t="s">
         <v>245</v>
@@ -24014,7 +24035,7 @@
         <v>245</v>
       </c>
       <c r="AH98" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AI98" s="11" t="s">
         <v>245</v>
@@ -24038,7 +24059,7 @@
         <v>467</v>
       </c>
       <c r="AP98" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ98" s="11" t="s">
         <v>245</v>
@@ -24098,7 +24119,7 @@
         <v>1919</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H99" s="17" t="s">
         <v>305</v>
@@ -24167,7 +24188,7 @@
         <v>345</v>
       </c>
       <c r="AE99" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF99" s="11" t="s">
         <v>245</v>
@@ -24176,7 +24197,7 @@
         <v>245</v>
       </c>
       <c r="AH99" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AI99" s="11" t="s">
         <v>245</v>
@@ -24239,7 +24260,7 @@
         <v>245</v>
       </c>
       <c r="BC99" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
@@ -24260,7 +24281,7 @@
         <v>1920</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>222</v>
@@ -24424,7 +24445,7 @@
         <v>1920</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>225</v>
@@ -26821,8 +26842,8 @@
       <c r="AC174" s="13"/>
       <c r="AD174" s="13"/>
       <c r="AE174" s="13"/>
-      <c r="AF174" s="13"/>
-      <c r="AG174" s="13"/>
+      <c r="AF174" s="25"/>
+      <c r="AG174" s="25"/>
       <c r="AH174" s="13"/>
       <c r="AI174" s="13"/>
       <c r="AJ174" s="13"/>
@@ -26852,8 +26873,8 @@
       <c r="AC175" s="13"/>
       <c r="AD175" s="13"/>
       <c r="AE175" s="13"/>
-      <c r="AF175" s="13"/>
-      <c r="AG175" s="13"/>
+      <c r="AF175" s="25"/>
+      <c r="AG175" s="25"/>
       <c r="AH175" s="13"/>
       <c r="AI175" s="13"/>
       <c r="AJ175" s="13"/>
@@ -26883,8 +26904,8 @@
       <c r="AC176" s="13"/>
       <c r="AD176" s="13"/>
       <c r="AE176" s="13"/>
-      <c r="AF176" s="13"/>
-      <c r="AG176" s="13"/>
+      <c r="AF176" s="25"/>
+      <c r="AG176" s="25"/>
       <c r="AH176" s="13"/>
       <c r="AI176" s="13"/>
       <c r="AJ176" s="13"/>
@@ -26914,8 +26935,8 @@
       <c r="AC177" s="13"/>
       <c r="AD177" s="13"/>
       <c r="AE177" s="13"/>
-      <c r="AF177" s="13"/>
-      <c r="AG177" s="13"/>
+      <c r="AF177" s="25"/>
+      <c r="AG177" s="25"/>
       <c r="AH177" s="13"/>
       <c r="AI177" s="13"/>
       <c r="AJ177" s="13"/>
@@ -26945,8 +26966,8 @@
       <c r="AC178" s="13"/>
       <c r="AD178" s="13"/>
       <c r="AE178" s="13"/>
-      <c r="AF178" s="13"/>
-      <c r="AG178" s="13"/>
+      <c r="AF178" s="25"/>
+      <c r="AG178" s="25"/>
       <c r="AH178" s="13"/>
       <c r="AI178" s="13"/>
       <c r="AJ178" s="13"/>
@@ -26976,8 +26997,8 @@
       <c r="AC179" s="13"/>
       <c r="AD179" s="13"/>
       <c r="AE179" s="13"/>
-      <c r="AF179" s="13"/>
-      <c r="AG179" s="13"/>
+      <c r="AF179" s="25"/>
+      <c r="AG179" s="25"/>
       <c r="AH179" s="13"/>
       <c r="AI179" s="13"/>
       <c r="AJ179" s="13"/>
@@ -27007,8 +27028,8 @@
       <c r="AC180" s="13"/>
       <c r="AD180" s="13"/>
       <c r="AE180" s="13"/>
-      <c r="AF180" s="13"/>
-      <c r="AG180" s="13"/>
+      <c r="AF180" s="25"/>
+      <c r="AG180" s="25"/>
       <c r="AH180" s="13"/>
       <c r="AI180" s="13"/>
       <c r="AJ180" s="13"/>
@@ -27038,8 +27059,8 @@
       <c r="AC181" s="13"/>
       <c r="AD181" s="13"/>
       <c r="AE181" s="13"/>
-      <c r="AF181" s="13"/>
-      <c r="AG181" s="13"/>
+      <c r="AF181" s="25"/>
+      <c r="AG181" s="25"/>
       <c r="AH181" s="13"/>
       <c r="AI181" s="13"/>
       <c r="AJ181" s="13"/>
@@ -27069,8 +27090,8 @@
       <c r="AC182" s="13"/>
       <c r="AD182" s="13"/>
       <c r="AE182" s="13"/>
-      <c r="AF182" s="13"/>
-      <c r="AG182" s="13"/>
+      <c r="AF182" s="25"/>
+      <c r="AG182" s="25"/>
       <c r="AH182" s="13"/>
       <c r="AI182" s="13"/>
       <c r="AJ182" s="13"/>
@@ -27100,8 +27121,8 @@
       <c r="AC183" s="13"/>
       <c r="AD183" s="13"/>
       <c r="AE183" s="13"/>
-      <c r="AF183" s="13"/>
-      <c r="AG183" s="13"/>
+      <c r="AF183" s="25"/>
+      <c r="AG183" s="25"/>
       <c r="AH183" s="13"/>
       <c r="AI183" s="13"/>
       <c r="AJ183" s="13"/>
@@ -27131,8 +27152,8 @@
       <c r="AC184" s="13"/>
       <c r="AD184" s="13"/>
       <c r="AE184" s="13"/>
-      <c r="AF184" s="13"/>
-      <c r="AG184" s="13"/>
+      <c r="AF184" s="25"/>
+      <c r="AG184" s="25"/>
       <c r="AH184" s="13"/>
       <c r="AI184" s="13"/>
       <c r="AJ184" s="13"/>
@@ -27162,8 +27183,8 @@
       <c r="AC185" s="13"/>
       <c r="AD185" s="13"/>
       <c r="AE185" s="13"/>
-      <c r="AF185" s="13"/>
-      <c r="AG185" s="13"/>
+      <c r="AF185" s="25"/>
+      <c r="AG185" s="25"/>
       <c r="AH185" s="13"/>
       <c r="AI185" s="13"/>
       <c r="AJ185" s="13"/>
@@ -27193,8 +27214,8 @@
       <c r="AC186" s="13"/>
       <c r="AD186" s="13"/>
       <c r="AE186" s="13"/>
-      <c r="AF186" s="13"/>
-      <c r="AG186" s="13"/>
+      <c r="AF186" s="25"/>
+      <c r="AG186" s="25"/>
       <c r="AH186" s="13"/>
       <c r="AI186" s="13"/>
       <c r="AJ186" s="13"/>
@@ -27224,8 +27245,8 @@
       <c r="AC187" s="13"/>
       <c r="AD187" s="13"/>
       <c r="AE187" s="13"/>
-      <c r="AF187" s="13"/>
-      <c r="AG187" s="13"/>
+      <c r="AF187" s="25"/>
+      <c r="AG187" s="25"/>
       <c r="AH187" s="13"/>
       <c r="AI187" s="13"/>
       <c r="AJ187" s="13"/>
@@ -27255,8 +27276,8 @@
       <c r="AC188" s="13"/>
       <c r="AD188" s="13"/>
       <c r="AE188" s="13"/>
-      <c r="AF188" s="13"/>
-      <c r="AG188" s="13"/>
+      <c r="AF188" s="25"/>
+      <c r="AG188" s="25"/>
       <c r="AH188" s="13"/>
       <c r="AI188" s="13"/>
       <c r="AJ188" s="13"/>
@@ -27286,8 +27307,8 @@
       <c r="AC189" s="13"/>
       <c r="AD189" s="13"/>
       <c r="AE189" s="13"/>
-      <c r="AF189" s="13"/>
-      <c r="AG189" s="13"/>
+      <c r="AF189" s="25"/>
+      <c r="AG189" s="25"/>
       <c r="AH189" s="13"/>
       <c r="AI189" s="13"/>
       <c r="AJ189" s="13"/>
@@ -27317,8 +27338,8 @@
       <c r="AC190" s="13"/>
       <c r="AD190" s="13"/>
       <c r="AE190" s="13"/>
-      <c r="AF190" s="13"/>
-      <c r="AG190" s="13"/>
+      <c r="AF190" s="25"/>
+      <c r="AG190" s="25"/>
       <c r="AH190" s="13"/>
       <c r="AI190" s="13"/>
       <c r="AJ190" s="13"/>
@@ -27348,8 +27369,8 @@
       <c r="AC191" s="13"/>
       <c r="AD191" s="13"/>
       <c r="AE191" s="13"/>
-      <c r="AF191" s="13"/>
-      <c r="AG191" s="13"/>
+      <c r="AF191" s="25"/>
+      <c r="AG191" s="25"/>
       <c r="AH191" s="13"/>
       <c r="AI191" s="13"/>
       <c r="AJ191" s="13"/>
@@ -27379,8 +27400,8 @@
       <c r="AC192" s="13"/>
       <c r="AD192" s="13"/>
       <c r="AE192" s="13"/>
-      <c r="AF192" s="13"/>
-      <c r="AG192" s="13"/>
+      <c r="AF192" s="25"/>
+      <c r="AG192" s="25"/>
       <c r="AH192" s="13"/>
       <c r="AI192" s="13"/>
       <c r="AJ192" s="13"/>
@@ -27410,8 +27431,8 @@
       <c r="AC193" s="13"/>
       <c r="AD193" s="13"/>
       <c r="AE193" s="13"/>
-      <c r="AF193" s="13"/>
-      <c r="AG193" s="13"/>
+      <c r="AF193" s="25"/>
+      <c r="AG193" s="25"/>
       <c r="AH193" s="13"/>
       <c r="AI193" s="13"/>
       <c r="AJ193" s="13"/>
@@ -27441,8 +27462,8 @@
       <c r="AC194" s="13"/>
       <c r="AD194" s="13"/>
       <c r="AE194" s="13"/>
-      <c r="AF194" s="13"/>
-      <c r="AG194" s="13"/>
+      <c r="AF194" s="25"/>
+      <c r="AG194" s="25"/>
       <c r="AH194" s="13"/>
       <c r="AI194" s="13"/>
       <c r="AJ194" s="13"/>
@@ -27472,8 +27493,8 @@
       <c r="AC195" s="13"/>
       <c r="AD195" s="13"/>
       <c r="AE195" s="13"/>
-      <c r="AF195" s="13"/>
-      <c r="AG195" s="13"/>
+      <c r="AF195" s="25"/>
+      <c r="AG195" s="25"/>
       <c r="AH195" s="13"/>
       <c r="AI195" s="13"/>
       <c r="AJ195" s="13"/>
@@ -27503,8 +27524,8 @@
       <c r="AC196" s="13"/>
       <c r="AD196" s="13"/>
       <c r="AE196" s="13"/>
-      <c r="AF196" s="13"/>
-      <c r="AG196" s="13"/>
+      <c r="AF196" s="25"/>
+      <c r="AG196" s="25"/>
       <c r="AH196" s="13"/>
       <c r="AI196" s="13"/>
       <c r="AJ196" s="13"/>
@@ -27534,8 +27555,8 @@
       <c r="AC197" s="13"/>
       <c r="AD197" s="13"/>
       <c r="AE197" s="13"/>
-      <c r="AF197" s="13"/>
-      <c r="AG197" s="13"/>
+      <c r="AF197" s="25"/>
+      <c r="AG197" s="25"/>
       <c r="AH197" s="13"/>
       <c r="AI197" s="13"/>
       <c r="AJ197" s="13"/>
@@ -27565,8 +27586,8 @@
       <c r="AC198" s="13"/>
       <c r="AD198" s="13"/>
       <c r="AE198" s="13"/>
-      <c r="AF198" s="13"/>
-      <c r="AG198" s="13"/>
+      <c r="AF198" s="25"/>
+      <c r="AG198" s="25"/>
       <c r="AH198" s="13"/>
       <c r="AI198" s="13"/>
       <c r="AJ198" s="13"/>
@@ -27596,8 +27617,8 @@
       <c r="AC199" s="13"/>
       <c r="AD199" s="13"/>
       <c r="AE199" s="13"/>
-      <c r="AF199" s="13"/>
-      <c r="AG199" s="13"/>
+      <c r="AF199" s="25"/>
+      <c r="AG199" s="25"/>
       <c r="AH199" s="13"/>
       <c r="AI199" s="13"/>
       <c r="AJ199" s="13"/>
@@ -27627,8 +27648,8 @@
       <c r="AC200" s="13"/>
       <c r="AD200" s="13"/>
       <c r="AE200" s="13"/>
-      <c r="AF200" s="13"/>
-      <c r="AG200" s="13"/>
+      <c r="AF200" s="25"/>
+      <c r="AG200" s="25"/>
       <c r="AH200" s="13"/>
       <c r="AI200" s="13"/>
       <c r="AJ200" s="13"/>
@@ -27658,8 +27679,8 @@
       <c r="AC201" s="13"/>
       <c r="AD201" s="13"/>
       <c r="AE201" s="13"/>
-      <c r="AF201" s="13"/>
-      <c r="AG201" s="13"/>
+      <c r="AF201" s="25"/>
+      <c r="AG201" s="25"/>
       <c r="AH201" s="13"/>
       <c r="AI201" s="13"/>
       <c r="AJ201" s="13"/>
@@ -27689,8 +27710,8 @@
       <c r="AC202" s="13"/>
       <c r="AD202" s="13"/>
       <c r="AE202" s="13"/>
-      <c r="AF202" s="13"/>
-      <c r="AG202" s="13"/>
+      <c r="AF202" s="25"/>
+      <c r="AG202" s="25"/>
       <c r="AH202" s="13"/>
       <c r="AI202" s="13"/>
       <c r="AJ202" s="13"/>
@@ -27720,8 +27741,8 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13"/>
       <c r="AE203" s="13"/>
-      <c r="AF203" s="13"/>
-      <c r="AG203" s="13"/>
+      <c r="AF203" s="25"/>
+      <c r="AG203" s="25"/>
       <c r="AH203" s="13"/>
       <c r="AI203" s="13"/>
       <c r="AJ203" s="13"/>
@@ -27751,8 +27772,8 @@
       <c r="AC204" s="13"/>
       <c r="AD204" s="13"/>
       <c r="AE204" s="13"/>
-      <c r="AF204" s="13"/>
-      <c r="AG204" s="13"/>
+      <c r="AF204" s="25"/>
+      <c r="AG204" s="25"/>
       <c r="AH204" s="13"/>
       <c r="AI204" s="13"/>
       <c r="AJ204" s="13"/>
@@ -27782,8 +27803,8 @@
       <c r="AC205" s="13"/>
       <c r="AD205" s="13"/>
       <c r="AE205" s="13"/>
-      <c r="AF205" s="13"/>
-      <c r="AG205" s="13"/>
+      <c r="AF205" s="25"/>
+      <c r="AG205" s="25"/>
       <c r="AH205" s="13"/>
       <c r="AI205" s="13"/>
       <c r="AJ205" s="13"/>
@@ -27813,8 +27834,8 @@
       <c r="AC206" s="13"/>
       <c r="AD206" s="13"/>
       <c r="AE206" s="13"/>
-      <c r="AF206" s="13"/>
-      <c r="AG206" s="13"/>
+      <c r="AF206" s="25"/>
+      <c r="AG206" s="25"/>
       <c r="AH206" s="13"/>
       <c r="AI206" s="13"/>
       <c r="AJ206" s="13"/>
@@ -27844,8 +27865,8 @@
       <c r="AC207" s="13"/>
       <c r="AD207" s="13"/>
       <c r="AE207" s="13"/>
-      <c r="AF207" s="13"/>
-      <c r="AG207" s="13"/>
+      <c r="AF207" s="25"/>
+      <c r="AG207" s="25"/>
       <c r="AH207" s="13"/>
       <c r="AI207" s="13"/>
       <c r="AJ207" s="13"/>
@@ -30014,8 +30035,8 @@
       <c r="AC277" s="13"/>
       <c r="AD277" s="13"/>
       <c r="AE277" s="13"/>
-      <c r="AF277" s="13"/>
-      <c r="AG277" s="13"/>
+      <c r="AF277" s="25"/>
+      <c r="AG277" s="25"/>
       <c r="AH277" s="13"/>
       <c r="AI277" s="13"/>
       <c r="AJ277" s="13"/>
@@ -30045,8 +30066,8 @@
       <c r="AC278" s="13"/>
       <c r="AD278" s="13"/>
       <c r="AE278" s="13"/>
-      <c r="AF278" s="13"/>
-      <c r="AG278" s="13"/>
+      <c r="AF278" s="25"/>
+      <c r="AG278" s="25"/>
       <c r="AH278" s="13"/>
       <c r="AI278" s="13"/>
       <c r="AJ278" s="13"/>
@@ -30076,8 +30097,8 @@
       <c r="AC279" s="13"/>
       <c r="AD279" s="13"/>
       <c r="AE279" s="13"/>
-      <c r="AF279" s="13"/>
-      <c r="AG279" s="13"/>
+      <c r="AF279" s="25"/>
+      <c r="AG279" s="25"/>
       <c r="AH279" s="13"/>
       <c r="AI279" s="13"/>
       <c r="AJ279" s="13"/>
@@ -30107,8 +30128,8 @@
       <c r="AC280" s="13"/>
       <c r="AD280" s="13"/>
       <c r="AE280" s="13"/>
-      <c r="AF280" s="13"/>
-      <c r="AG280" s="13"/>
+      <c r="AF280" s="25"/>
+      <c r="AG280" s="25"/>
       <c r="AH280" s="13"/>
       <c r="AI280" s="13"/>
       <c r="AJ280" s="13"/>
@@ -30138,8 +30159,8 @@
       <c r="AC281" s="13"/>
       <c r="AD281" s="13"/>
       <c r="AE281" s="13"/>
-      <c r="AF281" s="13"/>
-      <c r="AG281" s="13"/>
+      <c r="AF281" s="25"/>
+      <c r="AG281" s="25"/>
       <c r="AH281" s="13"/>
       <c r="AI281" s="13"/>
       <c r="AJ281" s="13"/>
@@ -30169,8 +30190,8 @@
       <c r="AC282" s="13"/>
       <c r="AD282" s="13"/>
       <c r="AE282" s="13"/>
-      <c r="AF282" s="13"/>
-      <c r="AG282" s="13"/>
+      <c r="AF282" s="25"/>
+      <c r="AG282" s="25"/>
       <c r="AH282" s="13"/>
       <c r="AI282" s="13"/>
       <c r="AJ282" s="13"/>
@@ -30200,8 +30221,8 @@
       <c r="AC283" s="13"/>
       <c r="AD283" s="13"/>
       <c r="AE283" s="13"/>
-      <c r="AF283" s="13"/>
-      <c r="AG283" s="13"/>
+      <c r="AF283" s="25"/>
+      <c r="AG283" s="25"/>
       <c r="AH283" s="13"/>
       <c r="AI283" s="13"/>
       <c r="AJ283" s="13"/>
@@ -30231,8 +30252,8 @@
       <c r="AC284" s="13"/>
       <c r="AD284" s="13"/>
       <c r="AE284" s="13"/>
-      <c r="AF284" s="13"/>
-      <c r="AG284" s="13"/>
+      <c r="AF284" s="25"/>
+      <c r="AG284" s="25"/>
       <c r="AH284" s="13"/>
       <c r="AI284" s="13"/>
       <c r="AJ284" s="13"/>
@@ -30262,8 +30283,8 @@
       <c r="AC285" s="9"/>
       <c r="AD285" s="13"/>
       <c r="AE285" s="13"/>
-      <c r="AF285" s="13"/>
-      <c r="AG285" s="13"/>
+      <c r="AF285" s="25"/>
+      <c r="AG285" s="25"/>
       <c r="AH285" s="13"/>
       <c r="AI285" s="13"/>
       <c r="AJ285" s="13"/>
@@ -30293,8 +30314,8 @@
       <c r="AC286" s="13"/>
       <c r="AD286" s="13"/>
       <c r="AE286" s="13"/>
-      <c r="AF286" s="13"/>
-      <c r="AG286" s="13"/>
+      <c r="AF286" s="25"/>
+      <c r="AG286" s="25"/>
       <c r="AH286" s="13"/>
       <c r="AI286" s="13"/>
       <c r="AJ286" s="13"/>
@@ -30324,8 +30345,8 @@
       <c r="AC287" s="13"/>
       <c r="AD287" s="13"/>
       <c r="AE287" s="13"/>
-      <c r="AF287" s="13"/>
-      <c r="AG287" s="13"/>
+      <c r="AF287" s="25"/>
+      <c r="AG287" s="25"/>
       <c r="AH287" s="13"/>
       <c r="AI287" s="13"/>
       <c r="AJ287" s="13"/>
@@ -30355,8 +30376,8 @@
       <c r="AC288" s="9"/>
       <c r="AD288" s="13"/>
       <c r="AE288" s="15"/>
-      <c r="AF288" s="13"/>
-      <c r="AG288" s="13"/>
+      <c r="AF288" s="25"/>
+      <c r="AG288" s="25"/>
       <c r="AH288" s="13"/>
       <c r="AI288" s="13"/>
       <c r="AJ288" s="13"/>
@@ -30386,8 +30407,8 @@
       <c r="AC289" s="13"/>
       <c r="AD289" s="13"/>
       <c r="AE289" s="13"/>
-      <c r="AF289" s="13"/>
-      <c r="AG289" s="13"/>
+      <c r="AF289" s="25"/>
+      <c r="AG289" s="25"/>
       <c r="AH289" s="13"/>
       <c r="AI289" s="13"/>
       <c r="AJ289" s="13"/>
@@ -30417,8 +30438,8 @@
       <c r="AC290" s="13"/>
       <c r="AD290" s="13"/>
       <c r="AE290" s="13"/>
-      <c r="AF290" s="13"/>
-      <c r="AG290" s="13"/>
+      <c r="AF290" s="25"/>
+      <c r="AG290" s="25"/>
       <c r="AH290" s="13"/>
       <c r="AI290" s="13"/>
       <c r="AJ290" s="13"/>
@@ -30448,8 +30469,8 @@
       <c r="AC291" s="13"/>
       <c r="AD291" s="13"/>
       <c r="AE291" s="13"/>
-      <c r="AF291" s="13"/>
-      <c r="AG291" s="13"/>
+      <c r="AF291" s="25"/>
+      <c r="AG291" s="25"/>
       <c r="AH291" s="13"/>
       <c r="AI291" s="13"/>
       <c r="AJ291" s="13"/>
@@ -30479,8 +30500,8 @@
       <c r="AC292" s="13"/>
       <c r="AD292" s="13"/>
       <c r="AE292" s="13"/>
-      <c r="AF292" s="13"/>
-      <c r="AG292" s="13"/>
+      <c r="AF292" s="25"/>
+      <c r="AG292" s="25"/>
       <c r="AH292" s="13"/>
       <c r="AI292" s="13"/>
       <c r="AJ292" s="13"/>
@@ -30510,8 +30531,8 @@
       <c r="AC293" s="13"/>
       <c r="AD293" s="13"/>
       <c r="AE293" s="13"/>
-      <c r="AF293" s="13"/>
-      <c r="AG293" s="13"/>
+      <c r="AF293" s="25"/>
+      <c r="AG293" s="25"/>
       <c r="AH293" s="13"/>
       <c r="AI293" s="13"/>
       <c r="AJ293" s="13"/>
@@ -30541,8 +30562,8 @@
       <c r="AC294" s="13"/>
       <c r="AD294" s="13"/>
       <c r="AE294" s="13"/>
-      <c r="AF294" s="13"/>
-      <c r="AG294" s="13"/>
+      <c r="AF294" s="25"/>
+      <c r="AG294" s="25"/>
       <c r="AH294" s="13"/>
       <c r="AI294" s="13"/>
       <c r="AJ294" s="13"/>
@@ -30572,8 +30593,8 @@
       <c r="AC295" s="13"/>
       <c r="AD295" s="13"/>
       <c r="AE295" s="13"/>
-      <c r="AF295" s="13"/>
-      <c r="AG295" s="13"/>
+      <c r="AF295" s="25"/>
+      <c r="AG295" s="25"/>
       <c r="AH295" s="13"/>
       <c r="AI295" s="13"/>
       <c r="AJ295" s="13"/>
@@ -30603,8 +30624,8 @@
       <c r="AC296" s="13"/>
       <c r="AD296" s="13"/>
       <c r="AE296" s="13"/>
-      <c r="AF296" s="13"/>
-      <c r="AG296" s="13"/>
+      <c r="AF296" s="25"/>
+      <c r="AG296" s="25"/>
       <c r="AH296" s="13"/>
       <c r="AI296" s="13"/>
       <c r="AJ296" s="13"/>
@@ -30634,8 +30655,8 @@
       <c r="AC297" s="13"/>
       <c r="AD297" s="13"/>
       <c r="AE297" s="13"/>
-      <c r="AF297" s="13"/>
-      <c r="AG297" s="13"/>
+      <c r="AF297" s="25"/>
+      <c r="AG297" s="25"/>
       <c r="AH297" s="13"/>
       <c r="AI297" s="13"/>
       <c r="AJ297" s="13"/>
@@ -30665,8 +30686,8 @@
       <c r="AC298" s="13"/>
       <c r="AD298" s="13"/>
       <c r="AE298" s="13"/>
-      <c r="AF298" s="13"/>
-      <c r="AG298" s="13"/>
+      <c r="AF298" s="25"/>
+      <c r="AG298" s="25"/>
       <c r="AH298" s="13"/>
       <c r="AI298" s="13"/>
       <c r="AJ298" s="13"/>
@@ -30696,8 +30717,8 @@
       <c r="AC299" s="13"/>
       <c r="AD299" s="13"/>
       <c r="AE299" s="13"/>
-      <c r="AF299" s="13"/>
-      <c r="AG299" s="13"/>
+      <c r="AF299" s="25"/>
+      <c r="AG299" s="25"/>
       <c r="AH299" s="13"/>
       <c r="AI299" s="13"/>
       <c r="AJ299" s="13"/>
@@ -30727,8 +30748,8 @@
       <c r="AC300" s="13"/>
       <c r="AD300" s="13"/>
       <c r="AE300" s="13"/>
-      <c r="AF300" s="13"/>
-      <c r="AG300" s="13"/>
+      <c r="AF300" s="25"/>
+      <c r="AG300" s="25"/>
       <c r="AH300" s="13"/>
       <c r="AI300" s="13"/>
       <c r="AJ300" s="13"/>
@@ -30758,8 +30779,8 @@
       <c r="AC301" s="13"/>
       <c r="AD301" s="13"/>
       <c r="AE301" s="13"/>
-      <c r="AF301" s="13"/>
-      <c r="AG301" s="13"/>
+      <c r="AF301" s="25"/>
+      <c r="AG301" s="25"/>
       <c r="AH301" s="13"/>
       <c r="AI301" s="13"/>
       <c r="AJ301" s="13"/>
@@ -30789,8 +30810,8 @@
       <c r="AC302" s="13"/>
       <c r="AD302" s="13"/>
       <c r="AE302" s="13"/>
-      <c r="AF302" s="13"/>
-      <c r="AG302" s="13"/>
+      <c r="AF302" s="25"/>
+      <c r="AG302" s="25"/>
       <c r="AH302" s="13"/>
       <c r="AI302" s="13"/>
       <c r="AJ302" s="13"/>
@@ -30820,8 +30841,8 @@
       <c r="AC303" s="13"/>
       <c r="AD303" s="13"/>
       <c r="AE303" s="13"/>
-      <c r="AF303" s="13"/>
-      <c r="AG303" s="13"/>
+      <c r="AF303" s="25"/>
+      <c r="AG303" s="25"/>
       <c r="AH303" s="13"/>
       <c r="AI303" s="13"/>
       <c r="AJ303" s="13"/>
@@ -30851,8 +30872,8 @@
       <c r="AC304" s="9"/>
       <c r="AD304" s="13"/>
       <c r="AE304" s="13"/>
-      <c r="AF304" s="13"/>
-      <c r="AG304" s="13"/>
+      <c r="AF304" s="25"/>
+      <c r="AG304" s="25"/>
       <c r="AH304" s="13"/>
       <c r="AI304" s="13"/>
       <c r="AJ304" s="13"/>
@@ -30882,8 +30903,8 @@
       <c r="AC305" s="13"/>
       <c r="AD305" s="13"/>
       <c r="AE305" s="13"/>
-      <c r="AF305" s="13"/>
-      <c r="AG305" s="13"/>
+      <c r="AF305" s="25"/>
+      <c r="AG305" s="25"/>
       <c r="AH305" s="13"/>
       <c r="AI305" s="13"/>
       <c r="AJ305" s="13"/>
@@ -30913,8 +30934,8 @@
       <c r="AC306" s="9"/>
       <c r="AD306" s="13"/>
       <c r="AE306" s="13"/>
-      <c r="AF306" s="13"/>
-      <c r="AG306" s="13"/>
+      <c r="AF306" s="25"/>
+      <c r="AG306" s="25"/>
       <c r="AH306" s="13"/>
       <c r="AI306" s="13"/>
       <c r="AJ306" s="13"/>
@@ -30944,8 +30965,8 @@
       <c r="AC307" s="13"/>
       <c r="AD307" s="13"/>
       <c r="AE307" s="13"/>
-      <c r="AF307" s="13"/>
-      <c r="AG307" s="13"/>
+      <c r="AF307" s="25"/>
+      <c r="AG307" s="25"/>
       <c r="AH307" s="13"/>
       <c r="AI307" s="13"/>
       <c r="AJ307" s="13"/>
@@ -30975,8 +30996,8 @@
       <c r="AC308" s="13"/>
       <c r="AD308" s="13"/>
       <c r="AE308" s="13"/>
-      <c r="AF308" s="13"/>
-      <c r="AG308" s="13"/>
+      <c r="AF308" s="25"/>
+      <c r="AG308" s="25"/>
       <c r="AH308" s="13"/>
       <c r="AI308" s="13"/>
       <c r="AJ308" s="13"/>
@@ -31006,8 +31027,8 @@
       <c r="AC309" s="13"/>
       <c r="AD309" s="13"/>
       <c r="AE309" s="13"/>
-      <c r="AF309" s="13"/>
-      <c r="AG309" s="13"/>
+      <c r="AF309" s="25"/>
+      <c r="AG309" s="25"/>
       <c r="AH309" s="13"/>
       <c r="AI309" s="13"/>
       <c r="AJ309" s="13"/>
@@ -31037,8 +31058,8 @@
       <c r="AC310" s="13"/>
       <c r="AD310" s="13"/>
       <c r="AE310" s="13"/>
-      <c r="AF310" s="13"/>
-      <c r="AG310" s="13"/>
+      <c r="AF310" s="25"/>
+      <c r="AG310" s="25"/>
       <c r="AH310" s="13"/>
       <c r="AI310" s="13"/>
       <c r="AJ310" s="13"/>
@@ -31068,8 +31089,8 @@
       <c r="AC311" s="13"/>
       <c r="AD311" s="13"/>
       <c r="AE311" s="13"/>
-      <c r="AF311" s="13"/>
-      <c r="AG311" s="13"/>
+      <c r="AF311" s="25"/>
+      <c r="AG311" s="25"/>
       <c r="AH311" s="13"/>
       <c r="AI311" s="13"/>
       <c r="AJ311" s="13"/>
@@ -31099,8 +31120,8 @@
       <c r="AC312" s="13"/>
       <c r="AD312" s="13"/>
       <c r="AE312" s="13"/>
-      <c r="AF312" s="13"/>
-      <c r="AG312" s="13"/>
+      <c r="AF312" s="25"/>
+      <c r="AG312" s="25"/>
       <c r="AH312" s="13"/>
       <c r="AI312" s="13"/>
       <c r="AJ312" s="13"/>
@@ -31130,8 +31151,8 @@
       <c r="AC313" s="13"/>
       <c r="AD313" s="13"/>
       <c r="AE313" s="13"/>
-      <c r="AF313" s="13"/>
-      <c r="AG313" s="13"/>
+      <c r="AF313" s="25"/>
+      <c r="AG313" s="25"/>
       <c r="AH313" s="13"/>
       <c r="AI313" s="13"/>
       <c r="AJ313" s="13"/>
@@ -31161,8 +31182,8 @@
       <c r="AC314" s="13"/>
       <c r="AD314" s="13"/>
       <c r="AE314" s="13"/>
-      <c r="AF314" s="13"/>
-      <c r="AG314" s="13"/>
+      <c r="AF314" s="25"/>
+      <c r="AG314" s="25"/>
       <c r="AH314" s="13"/>
       <c r="AI314" s="13"/>
       <c r="AJ314" s="13"/>
@@ -31192,8 +31213,8 @@
       <c r="AC315" s="13"/>
       <c r="AD315" s="13"/>
       <c r="AE315" s="13"/>
-      <c r="AF315" s="13"/>
-      <c r="AG315" s="13"/>
+      <c r="AF315" s="25"/>
+      <c r="AG315" s="25"/>
       <c r="AH315" s="13"/>
       <c r="AI315" s="13"/>
       <c r="AJ315" s="13"/>
@@ -31223,8 +31244,8 @@
       <c r="AC316" s="13"/>
       <c r="AD316" s="13"/>
       <c r="AE316" s="13"/>
-      <c r="AF316" s="13"/>
-      <c r="AG316" s="13"/>
+      <c r="AF316" s="25"/>
+      <c r="AG316" s="25"/>
       <c r="AH316" s="13"/>
       <c r="AI316" s="13"/>
       <c r="AJ316" s="13"/>
@@ -31254,8 +31275,8 @@
       <c r="AC317" s="13"/>
       <c r="AD317" s="13"/>
       <c r="AE317" s="13"/>
-      <c r="AF317" s="13"/>
-      <c r="AG317" s="13"/>
+      <c r="AF317" s="25"/>
+      <c r="AG317" s="25"/>
       <c r="AH317" s="13"/>
       <c r="AI317" s="13"/>
       <c r="AJ317" s="13"/>
@@ -31285,8 +31306,8 @@
       <c r="AC318" s="13"/>
       <c r="AD318" s="13"/>
       <c r="AE318" s="13"/>
-      <c r="AF318" s="13"/>
-      <c r="AG318" s="13"/>
+      <c r="AF318" s="25"/>
+      <c r="AG318" s="25"/>
       <c r="AH318" s="13"/>
       <c r="AI318" s="13"/>
       <c r="AJ318" s="13"/>
@@ -31316,8 +31337,8 @@
       <c r="AC319" s="13"/>
       <c r="AD319" s="13"/>
       <c r="AE319" s="13"/>
-      <c r="AF319" s="13"/>
-      <c r="AG319" s="13"/>
+      <c r="AF319" s="25"/>
+      <c r="AG319" s="25"/>
       <c r="AH319" s="13"/>
       <c r="AI319" s="13"/>
       <c r="AJ319" s="13"/>
@@ -31347,8 +31368,8 @@
       <c r="AC320" s="13"/>
       <c r="AD320" s="13"/>
       <c r="AE320" s="13"/>
-      <c r="AF320" s="13"/>
-      <c r="AG320" s="13"/>
+      <c r="AF320" s="25"/>
+      <c r="AG320" s="25"/>
       <c r="AH320" s="13"/>
       <c r="AI320" s="13"/>
       <c r="AJ320" s="13"/>
@@ -31378,8 +31399,8 @@
       <c r="AC321" s="13"/>
       <c r="AD321" s="13"/>
       <c r="AE321" s="13"/>
-      <c r="AF321" s="13"/>
-      <c r="AG321" s="13"/>
+      <c r="AF321" s="25"/>
+      <c r="AG321" s="25"/>
       <c r="AH321" s="13"/>
       <c r="AI321" s="13"/>
       <c r="AJ321" s="13"/>
@@ -31409,8 +31430,8 @@
       <c r="AC322" s="13"/>
       <c r="AD322" s="13"/>
       <c r="AE322" s="13"/>
-      <c r="AF322" s="13"/>
-      <c r="AG322" s="13"/>
+      <c r="AF322" s="25"/>
+      <c r="AG322" s="25"/>
       <c r="AH322" s="13"/>
       <c r="AI322" s="13"/>
       <c r="AJ322" s="13"/>
@@ -31421,7 +31442,7 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V322 S1:S322 N1:N322 L1:L241 L277:L322 AN2 AM1:AM322 AK1:AK322 AG1:AG322 AJ1:AJ1048576 AA1:AA1048576 Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V322 S1:S322 N1:N322 L1:L241 L277:L322 AN2 AM1:AM322 AK1:AK322 AJ2:AJ1048576 Q1:Q1048576 AA1:AA1048576 AG2:AG322">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL1048576">
@@ -31430,7 +31451,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576 AC1:AC1048576">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576 W1:W1048576 AF1:AF1048576 O1:O1048576 R1:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576 W1:W1048576 R1:R1048576 O1:O1048576 AF2:AF1048576">
       <formula1>"def,indef,no,na"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ1:AZ1048576 AX1:AX1048576 AV1:AV1048576 AT1:AT1048576 AR2:AR1048576 AP1:AP1048576">
@@ -31442,7 +31463,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
       <formula1>"no,def,indef,na"</formula1>
     </dataValidation>
   </dataValidations>

--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -1934,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2007,6 +2007,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7994,15 +8007,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU5" sqref="AU5"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="7" width="10.88671875" customWidth="1"/>
+    <col min="2" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="31.109375" style="1" customWidth="1"/>
     <col min="9" max="11" width="10.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="10" customWidth="1"/>
@@ -8038,7 +8053,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="26" t="s">
         <v>572</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -8208,7 +8223,7 @@
       <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="27">
         <v>1840</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -8371,7 +8386,7 @@
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="27">
         <v>1841</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -8536,7 +8551,7 @@
       <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="27">
         <v>1841</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -8701,7 +8716,7 @@
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="27">
         <v>1844</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -8866,7 +8881,7 @@
       <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="27">
         <v>1845</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -9031,7 +9046,7 @@
       <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="27">
         <v>1846</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -9194,7 +9209,7 @@
       <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="27">
         <v>1847</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -9359,7 +9374,7 @@
       <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="27">
         <v>1847</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -9522,7 +9537,7 @@
       <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="27">
         <v>1848</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -9685,7 +9700,7 @@
       <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="27">
         <v>1848</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -9848,7 +9863,7 @@
       <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="27">
         <v>1848</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -10013,7 +10028,7 @@
       <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="27">
         <v>1849</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -10170,7 +10185,7 @@
       <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="27">
         <v>1850</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -10333,7 +10348,7 @@
       <c r="E15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="27">
         <v>1851</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -10498,7 +10513,7 @@
       <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="27">
         <v>1851</v>
       </c>
       <c r="G16" s="16" t="s">
@@ -10663,7 +10678,7 @@
       <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="27">
         <v>1853</v>
       </c>
       <c r="G17" s="16" t="s">
@@ -10828,7 +10843,7 @@
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="27">
         <v>1853</v>
       </c>
       <c r="G18" s="16" t="s">
@@ -10991,7 +11006,7 @@
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="27">
         <v>1854</v>
       </c>
       <c r="G19" s="16" t="s">
@@ -11156,7 +11171,7 @@
       <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="27">
         <v>1855</v>
       </c>
       <c r="G20" s="16" t="s">
@@ -11319,7 +11334,7 @@
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="27">
         <v>1856</v>
       </c>
       <c r="G21" s="16" t="s">
@@ -11484,7 +11499,7 @@
       <c r="E22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="27">
         <v>1856</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -11647,7 +11662,7 @@
       <c r="E23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="27">
         <v>1857</v>
       </c>
       <c r="G23" s="16" t="s">
@@ -11812,7 +11827,7 @@
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="27">
         <v>1860</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -11977,7 +11992,7 @@
       <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="28">
         <v>1861</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -12140,7 +12155,7 @@
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="27">
         <v>1862</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -12303,7 +12318,7 @@
       <c r="E27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="27">
         <v>1863</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -12466,7 +12481,7 @@
       <c r="E28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="27">
         <v>1863</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -12631,7 +12646,7 @@
       <c r="E29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="27">
         <v>1863</v>
       </c>
       <c r="G29" s="16" t="s">
@@ -12794,7 +12809,7 @@
       <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="27">
         <v>1864</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -12957,7 +12972,7 @@
       <c r="E31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="27">
         <v>1864</v>
       </c>
       <c r="G31" s="16" t="s">
@@ -13122,7 +13137,7 @@
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="27">
         <v>1865</v>
       </c>
       <c r="G32" s="16" t="s">
@@ -13285,7 +13300,7 @@
       <c r="E33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="27">
         <v>1865</v>
       </c>
       <c r="G33" s="16" t="s">
@@ -13450,7 +13465,7 @@
       <c r="E34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="27">
         <v>1866</v>
       </c>
       <c r="G34" s="16" t="s">
@@ -13615,7 +13630,7 @@
       <c r="E35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="28">
         <v>1867</v>
       </c>
       <c r="G35" s="16" t="s">
@@ -13778,7 +13793,7 @@
       <c r="E36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="28">
         <v>1870</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -13941,7 +13956,7 @@
       <c r="E37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="28">
         <v>1870</v>
       </c>
       <c r="G37" s="16" t="s">
@@ -14104,7 +14119,7 @@
       <c r="E38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="28">
         <v>1871</v>
       </c>
       <c r="G38" s="16" t="s">
@@ -14269,7 +14284,7 @@
       <c r="E39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="27">
         <v>1872</v>
       </c>
       <c r="G39" s="16" t="s">
@@ -14432,7 +14447,7 @@
       <c r="E40" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="27">
         <v>1872</v>
       </c>
       <c r="G40" s="16" t="s">
@@ -14595,7 +14610,7 @@
       <c r="E41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="28">
         <v>1874</v>
       </c>
       <c r="G41" s="16" t="s">
@@ -14758,7 +14773,7 @@
       <c r="E42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="27">
         <v>1874</v>
       </c>
       <c r="G42" s="16" t="s">
@@ -14921,7 +14936,7 @@
       <c r="E43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="27">
         <v>1874</v>
       </c>
       <c r="G43" s="16" t="s">
@@ -15084,7 +15099,7 @@
       <c r="E44" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="28">
         <v>1876</v>
       </c>
       <c r="G44" s="16" t="s">
@@ -15247,7 +15262,7 @@
       <c r="E45" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="27">
         <v>1877</v>
       </c>
       <c r="G45" s="16" t="s">
@@ -15410,7 +15425,7 @@
       <c r="E46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="27">
         <v>1880</v>
       </c>
       <c r="G46" s="16" t="s">
@@ -15575,7 +15590,7 @@
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="28">
         <v>1882</v>
       </c>
       <c r="G47" s="16" t="s">
@@ -15740,7 +15755,7 @@
       <c r="E48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="28">
         <v>1883</v>
       </c>
       <c r="G48" s="16" t="s">
@@ -15905,7 +15920,7 @@
       <c r="E49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="27">
         <v>1883</v>
       </c>
       <c r="G49" s="16" t="s">
@@ -16070,7 +16085,7 @@
       <c r="E50" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="27">
         <v>1884</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -16235,7 +16250,7 @@
       <c r="E51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="28">
         <v>1885</v>
       </c>
       <c r="G51" s="16" t="s">
@@ -16398,7 +16413,7 @@
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="28">
         <v>1886</v>
       </c>
       <c r="G52" s="16" t="s">
@@ -16563,7 +16578,7 @@
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="28">
         <v>1887</v>
       </c>
       <c r="G53" s="16" t="s">
@@ -16728,7 +16743,7 @@
       <c r="E54" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="27">
         <v>1887</v>
       </c>
       <c r="G54" s="16" t="s">
@@ -16891,7 +16906,7 @@
       <c r="E55" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="27">
         <v>1887</v>
       </c>
       <c r="G55" s="16" t="s">
@@ -17056,7 +17071,7 @@
       <c r="E56" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="27">
         <v>1889</v>
       </c>
       <c r="G56" s="16" t="s">
@@ -17221,7 +17236,7 @@
       <c r="E57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="27">
         <v>1890</v>
       </c>
       <c r="G57" s="16" t="s">
@@ -17384,7 +17399,7 @@
       <c r="E58" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="28">
         <v>1890</v>
       </c>
       <c r="G58" s="16" t="s">
@@ -17549,7 +17564,7 @@
       <c r="E59" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="28">
         <v>1891</v>
       </c>
       <c r="G59" s="16" t="s">
@@ -17714,7 +17729,7 @@
       <c r="E60" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="28">
         <v>1891</v>
       </c>
       <c r="G60" s="16" t="s">
@@ -17879,7 +17894,7 @@
       <c r="E61" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="27">
         <v>1892</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -18042,7 +18057,7 @@
       <c r="E62" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="28">
         <v>1893</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -18205,7 +18220,7 @@
       <c r="E63" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="28">
         <v>1893</v>
       </c>
       <c r="G63" s="16" t="s">
@@ -18370,7 +18385,7 @@
       <c r="E64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="27">
         <v>1894</v>
       </c>
       <c r="G64" s="16" t="s">
@@ -18535,7 +18550,7 @@
       <c r="E65" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="28">
         <v>1894</v>
       </c>
       <c r="G65" s="16" t="s">
@@ -18700,7 +18715,7 @@
       <c r="E66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="27">
         <v>1895</v>
       </c>
       <c r="G66" s="16" t="s">
@@ -18865,7 +18880,7 @@
       <c r="E67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="27">
         <v>1895</v>
       </c>
       <c r="G67" s="16" t="s">
@@ -19030,7 +19045,7 @@
       <c r="E68" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="28">
         <v>1895</v>
       </c>
       <c r="G68" s="16" t="s">
@@ -19193,7 +19208,7 @@
       <c r="E69" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="27">
         <v>1895</v>
       </c>
       <c r="G69" s="16" t="s">
@@ -19356,7 +19371,7 @@
       <c r="E70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="27">
         <v>1895</v>
       </c>
       <c r="G70" s="16" t="s">
@@ -19521,7 +19536,7 @@
       <c r="E71" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="27">
         <v>1896</v>
       </c>
       <c r="G71" s="16" t="s">
@@ -19684,7 +19699,7 @@
       <c r="E72" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="27">
         <v>1896</v>
       </c>
       <c r="G72" s="16" t="s">
@@ -19847,7 +19862,7 @@
       <c r="E73" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="27">
         <v>1897</v>
       </c>
       <c r="G73" s="16" t="s">
@@ -20012,7 +20027,7 @@
       <c r="E74" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="27">
         <v>1897</v>
       </c>
       <c r="G74" s="16" t="s">
@@ -20177,7 +20192,7 @@
       <c r="E75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="28">
         <v>1897</v>
       </c>
       <c r="G75" s="16" t="s">
@@ -20342,7 +20357,7 @@
       <c r="E76" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="27">
         <v>1898</v>
       </c>
       <c r="G76" s="16" t="s">
@@ -20505,7 +20520,7 @@
       <c r="E77" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="27">
         <v>1900</v>
       </c>
       <c r="G77" s="16" t="s">
@@ -20670,7 +20685,7 @@
       <c r="E78" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="27">
         <v>1900</v>
       </c>
       <c r="G78" s="16" t="s">
@@ -20833,7 +20848,7 @@
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="28">
         <v>1900</v>
       </c>
       <c r="G79" s="16" t="s">
@@ -20996,7 +21011,7 @@
       <c r="E80" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="27">
         <v>1901</v>
       </c>
       <c r="G80" s="16" t="s">
@@ -21161,7 +21176,7 @@
       <c r="E81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="27">
         <v>1901</v>
       </c>
       <c r="G81" s="16" t="s">
@@ -21326,7 +21341,7 @@
       <c r="E82" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="27">
         <v>1902</v>
       </c>
       <c r="G82" s="16" t="s">
@@ -21489,7 +21504,7 @@
       <c r="E83" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="27">
         <v>1903</v>
       </c>
       <c r="G83" s="16" t="s">
@@ -21654,7 +21669,7 @@
       <c r="E84" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="27">
         <v>1906</v>
       </c>
       <c r="G84" s="16" t="s">
@@ -21819,7 +21834,7 @@
       <c r="E85" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="27">
         <v>1907</v>
       </c>
       <c r="G85" s="16" t="s">
@@ -21984,7 +21999,7 @@
       <c r="E86" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="27">
         <v>1907</v>
       </c>
       <c r="G86" s="16" t="s">
@@ -22147,7 +22162,7 @@
       <c r="E87" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="28">
         <v>1908</v>
       </c>
       <c r="G87" s="16" t="s">
@@ -22310,7 +22325,7 @@
       <c r="E88" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="27">
         <v>1909</v>
       </c>
       <c r="G88" s="16" t="s">
@@ -22475,7 +22490,7 @@
       <c r="E89" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="28">
         <v>1909</v>
       </c>
       <c r="G89" s="16" t="s">
@@ -22640,7 +22655,7 @@
       <c r="E90" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="29">
         <v>1910</v>
       </c>
       <c r="G90" s="16" t="s">
@@ -22805,7 +22820,7 @@
       <c r="E91" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="27">
         <v>1911</v>
       </c>
       <c r="G91" s="16" t="s">
@@ -22970,7 +22985,7 @@
       <c r="E92" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="27">
         <v>1912</v>
       </c>
       <c r="G92" s="16" t="s">
@@ -23135,7 +23150,7 @@
       <c r="E93" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="27">
         <v>1912</v>
       </c>
       <c r="G93" s="16" t="s">
@@ -23299,7 +23314,7 @@
       <c r="E94" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="27">
         <v>1915</v>
       </c>
       <c r="G94" s="16" t="s">
@@ -23463,7 +23478,7 @@
       <c r="E95" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="27">
         <v>1917</v>
       </c>
       <c r="G95" s="16" t="s">
@@ -23627,7 +23642,7 @@
       <c r="E96" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="27">
         <v>1918</v>
       </c>
       <c r="G96" s="16" t="s">
@@ -23791,7 +23806,7 @@
       <c r="E97" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="27">
         <v>1919</v>
       </c>
       <c r="G97" s="16" t="s">
@@ -23953,7 +23968,7 @@
       <c r="E98" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="27">
         <v>1919</v>
       </c>
       <c r="G98" s="16" t="s">
@@ -24115,7 +24130,7 @@
       <c r="E99" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="27">
         <v>1919</v>
       </c>
       <c r="G99" s="16" t="s">
@@ -24277,7 +24292,7 @@
       <c r="E100" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="27">
         <v>1920</v>
       </c>
       <c r="G100" s="16" t="s">
@@ -24441,7 +24456,7 @@
       <c r="E101" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="27">
         <v>1920</v>
       </c>
       <c r="G101" s="16" t="s">

--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="581">
   <si>
     <t>Identifier</t>
   </si>
@@ -1759,93 +1759,6 @@
   </si>
   <si>
     <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>T27</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T31</t>
-  </si>
-  <si>
-    <t>T32</t>
-  </si>
-  <si>
-    <t>T33</t>
   </si>
   <si>
     <t>otherEntityIIAttribution</t>
@@ -8008,8 +7921,8 @@
   <dimension ref="A1:BJ322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8132,19 +8045,19 @@
         <v>238</v>
       </c>
       <c r="AF1" s="24" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="AG1" s="24" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>472</v>
       </c>
       <c r="AI1" s="23" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>241</v>
@@ -8390,7 +8303,7 @@
         <v>1841</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>260</v>
@@ -8555,7 +8468,7 @@
         <v>1841</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>261</v>
@@ -8720,7 +8633,7 @@
         <v>1844</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>22</v>
@@ -8885,7 +8798,7 @@
         <v>1845</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>26</v>
@@ -9050,7 +8963,7 @@
         <v>1846</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>28</v>
@@ -9213,7 +9126,7 @@
         <v>1847</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>31</v>
@@ -9378,7 +9291,7 @@
         <v>1847</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>468</v>
@@ -9541,7 +9454,7 @@
         <v>1848</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>311</v>
@@ -9704,7 +9617,7 @@
         <v>1848</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>38</v>
@@ -9867,7 +9780,7 @@
         <v>1848</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>41</v>
@@ -10032,7 +9945,7 @@
         <v>1849</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>312</v>
@@ -10189,7 +10102,7 @@
         <v>1850</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>46</v>
@@ -10352,7 +10265,7 @@
         <v>1851</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>50</v>
@@ -10517,7 +10430,7 @@
         <v>1851</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>53</v>
@@ -10682,7 +10595,7 @@
         <v>1853</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>55</v>
@@ -10847,7 +10760,7 @@
         <v>1853</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>57</v>
@@ -11010,7 +10923,7 @@
         <v>1854</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>60</v>
@@ -11175,7 +11088,7 @@
         <v>1855</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>63</v>
@@ -11338,7 +11251,7 @@
         <v>1856</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>315</v>
@@ -11503,7 +11416,7 @@
         <v>1856</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>66</v>
@@ -11666,7 +11579,7 @@
         <v>1857</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>316</v>
@@ -11996,7 +11909,7 @@
         <v>1861</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>71</v>
@@ -12159,7 +12072,7 @@
         <v>1862</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>74</v>
@@ -12322,7 +12235,7 @@
         <v>1863</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>77</v>
@@ -12485,7 +12398,7 @@
         <v>1863</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>266</v>
@@ -12650,7 +12563,7 @@
         <v>1863</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>269</v>
@@ -12813,7 +12726,7 @@
         <v>1864</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>80</v>
@@ -12976,7 +12889,7 @@
         <v>1864</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>272</v>
@@ -13141,7 +13054,7 @@
         <v>1865</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>83</v>
@@ -13304,7 +13217,7 @@
         <v>1865</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>85</v>
@@ -13469,7 +13382,7 @@
         <v>1866</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>88</v>
@@ -13634,7 +13547,7 @@
         <v>1867</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>90</v>
@@ -13797,7 +13710,7 @@
         <v>1870</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>322</v>
@@ -13960,7 +13873,7 @@
         <v>1870</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>95</v>
@@ -14123,7 +14036,7 @@
         <v>1871</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>323</v>
@@ -14288,7 +14201,7 @@
         <v>1872</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>98</v>
@@ -14451,7 +14364,7 @@
         <v>1872</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>248</v>
@@ -14614,7 +14527,7 @@
         <v>1874</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>371</v>
@@ -14777,7 +14690,7 @@
         <v>1874</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>103</v>
@@ -14940,7 +14853,7 @@
         <v>1874</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>277</v>
@@ -15103,7 +15016,7 @@
         <v>1876</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>375</v>
@@ -15266,7 +15179,7 @@
         <v>1877</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>108</v>
@@ -15594,7 +15507,7 @@
         <v>1882</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>381</v>
@@ -15759,7 +15672,7 @@
         <v>1883</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>383</v>
@@ -15924,7 +15837,7 @@
         <v>1883</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>117</v>
@@ -16089,7 +16002,7 @@
         <v>1884</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>119</v>
@@ -16254,7 +16167,7 @@
         <v>1885</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>388</v>
@@ -16417,7 +16330,7 @@
         <v>1886</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>390</v>
@@ -16582,7 +16495,7 @@
         <v>1887</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>391</v>
@@ -16747,7 +16660,7 @@
         <v>1887</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>126</v>
@@ -16910,7 +16823,7 @@
         <v>1887</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>128</v>
@@ -17075,7 +16988,7 @@
         <v>1889</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>131</v>
@@ -17240,7 +17153,7 @@
         <v>1890</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>134</v>
@@ -17403,7 +17316,7 @@
         <v>1890</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>137</v>
@@ -17568,7 +17481,7 @@
         <v>1891</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>140</v>
@@ -17733,7 +17646,7 @@
         <v>1891</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>399</v>
@@ -17898,7 +17811,7 @@
         <v>1892</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>145</v>
@@ -18061,7 +17974,7 @@
         <v>1893</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>402</v>
@@ -18224,7 +18137,7 @@
         <v>1893</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>282</v>
@@ -18389,7 +18302,7 @@
         <v>1894</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>150</v>
@@ -18554,7 +18467,7 @@
         <v>1894</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>153</v>
@@ -18719,7 +18632,7 @@
         <v>1895</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>156</v>
@@ -18884,7 +18797,7 @@
         <v>1895</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>159</v>
@@ -19049,7 +18962,7 @@
         <v>1895</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>407</v>
@@ -19212,7 +19125,7 @@
         <v>1895</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="H69" s="16" t="s">
         <v>285</v>
@@ -19375,7 +19288,7 @@
         <v>1895</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="H70" s="16" t="s">
         <v>288</v>
@@ -19540,7 +19453,7 @@
         <v>1896</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="H71" s="16" t="s">
         <v>164</v>
@@ -19703,7 +19616,7 @@
         <v>1896</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="H72" s="16" t="s">
         <v>167</v>
@@ -19866,7 +19779,7 @@
         <v>1897</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>413</v>
@@ -20031,7 +19944,7 @@
         <v>1897</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>291</v>
@@ -20196,7 +20109,7 @@
         <v>1897</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>415</v>
@@ -20361,7 +20274,7 @@
         <v>1898</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>173</v>
@@ -20689,7 +20602,7 @@
         <v>1900</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>180</v>
@@ -20852,7 +20765,7 @@
         <v>1900</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>183</v>
@@ -21015,7 +20928,7 @@
         <v>1901</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H80" s="16" t="s">
         <v>186</v>
@@ -21180,7 +21093,7 @@
         <v>1901</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>294</v>
@@ -21345,7 +21258,7 @@
         <v>1902</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>190</v>
@@ -21508,7 +21421,7 @@
         <v>1903</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H83" s="16" t="s">
         <v>424</v>
@@ -21673,7 +21586,7 @@
         <v>1906</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>192</v>
@@ -21838,7 +21751,7 @@
         <v>1907</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>298</v>
@@ -22003,7 +21916,7 @@
         <v>1907</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>196</v>
@@ -22166,7 +22079,7 @@
         <v>1908</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>431</v>
@@ -22329,7 +22242,7 @@
         <v>1909</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>299</v>
@@ -22494,7 +22407,7 @@
         <v>1909</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>202</v>
@@ -22659,7 +22572,7 @@
         <v>1910</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>204</v>
@@ -22824,7 +22737,7 @@
         <v>1911</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>207</v>
@@ -22989,7 +22902,7 @@
         <v>1912</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>210</v>
@@ -23154,7 +23067,7 @@
         <v>1912</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>301</v>
@@ -23318,7 +23231,7 @@
         <v>1915</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>247</v>
@@ -23482,7 +23395,7 @@
         <v>1917</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>439</v>
@@ -23646,7 +23559,7 @@
         <v>1918</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="H96" s="16" t="s">
         <v>214</v>
@@ -23810,7 +23723,7 @@
         <v>1919</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>217</v>
@@ -23972,7 +23885,7 @@
         <v>1919</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>246</v>
@@ -24134,7 +24047,7 @@
         <v>1919</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="H99" s="17" t="s">
         <v>305</v>
@@ -24296,7 +24209,7 @@
         <v>1920</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>222</v>
@@ -24460,7 +24373,7 @@
         <v>1920</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>225</v>
@@ -31456,6 +31369,9 @@
       <c r="AN322" s="13"/>
     </row>
   </sheetData>
+  <sortState ref="A2:BC101">
+    <sortCondition ref="F2:F101"/>
+  </sortState>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V322 S1:S322 N1:N322 L1:L241 L277:L322 AN2 AM1:AM322 AK1:AK322 AJ2:AJ1048576 Q1:Q1048576 AA1:AA1048576 AG2:AG322">
       <formula1>"yes,no"</formula1>

--- a/titlePilotStudy/data/ENG.xlsx
+++ b/titlePilotStudy/data/ENG.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="584">
   <si>
     <t>Identifier</t>
   </si>
@@ -1771,6 +1771,15 @@
   </si>
   <si>
     <t>otherEntityAttribution</t>
+  </si>
+  <si>
+    <t>personII</t>
+  </si>
+  <si>
+    <t>placeII</t>
+  </si>
+  <si>
+    <t>otherII</t>
   </si>
 </sst>
 </file>
@@ -7920,9 +7929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7936,18 +7945,19 @@
     <col min="12" max="12" width="12.6640625" style="10" customWidth="1"/>
     <col min="13" max="30" width="10.88671875" style="10" customWidth="1"/>
     <col min="31" max="40" width="8.88671875" style="10" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="10"/>
+    <col min="41" max="41" width="10.88671875" style="10" customWidth="1"/>
     <col min="42" max="42" width="12.6640625" style="10" customWidth="1"/>
-    <col min="43" max="43" width="10.88671875" style="10"/>
+    <col min="43" max="43" width="10.88671875" style="10" customWidth="1"/>
     <col min="44" max="44" width="12.6640625" style="10" customWidth="1"/>
     <col min="45" max="45" width="8.21875" style="10" customWidth="1"/>
     <col min="46" max="46" width="7.88671875" style="10" customWidth="1"/>
     <col min="47" max="47" width="10.5546875" style="10" customWidth="1"/>
     <col min="48" max="48" width="11.6640625" style="10" customWidth="1"/>
     <col min="49" max="49" width="9" style="10" customWidth="1"/>
-    <col min="50" max="50" width="8.88671875" style="10"/>
-    <col min="51" max="52" width="10.88671875" style="10"/>
-    <col min="55" max="55" width="10.88671875" style="10"/>
+    <col min="50" max="52" width="10.88671875" style="10" customWidth="1"/>
+    <col min="53" max="54" width="10.88671875" customWidth="1"/>
+    <col min="55" max="55" width="10.88671875" style="10" customWidth="1"/>
+    <col min="56" max="57" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
@@ -8116,8 +8126,15 @@
       <c r="BC1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="23"/>
+      <c r="BD1" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>583</v>
+      </c>
       <c r="BJ1" s="23"/>
     </row>
     <row r="2" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
@@ -8284,6 +8301,15 @@
       <c r="BC2" s="9" t="s">
         <v>344</v>
       </c>
+      <c r="BD2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="3" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -8447,6 +8473,15 @@
       <c r="BC3" s="11" t="s">
         <v>480</v>
       </c>
+      <c r="BD3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF3" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="4" spans="1:62" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -8612,6 +8647,15 @@
       <c r="BC4" s="11" t="s">
         <v>327</v>
       </c>
+      <c r="BD4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="5" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -8777,6 +8821,15 @@
       <c r="BC5" s="11" t="s">
         <v>330</v>
       </c>
+      <c r="BD5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF5" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -8942,6 +8995,15 @@
       <c r="BC6" s="11" t="s">
         <v>333</v>
       </c>
+      <c r="BD6" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="7" spans="1:62" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
@@ -9107,6 +9169,15 @@
       <c r="BC7" s="11" t="s">
         <v>337</v>
       </c>
+      <c r="BD7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF7" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="8" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -9270,6 +9341,15 @@
       <c r="BC8" s="11" t="s">
         <v>308</v>
       </c>
+      <c r="BD8" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -9435,6 +9515,15 @@
       <c r="BC9" s="11" t="s">
         <v>484</v>
       </c>
+      <c r="BD9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF9" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="10" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -9598,6 +9687,15 @@
       <c r="BC10" s="11" t="s">
         <v>485</v>
       </c>
+      <c r="BD10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="11" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -9761,6 +9859,15 @@
       <c r="BC11" s="11" t="s">
         <v>486</v>
       </c>
+      <c r="BD11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF11" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="12" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -9924,6 +10031,15 @@
       <c r="BC12" s="11" t="s">
         <v>487</v>
       </c>
+      <c r="BD12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="13" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -10083,6 +10199,15 @@
       <c r="BC13" s="11" t="s">
         <v>489</v>
       </c>
+      <c r="BD13" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF13" s="11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:62" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -10246,6 +10371,15 @@
       <c r="BC14" s="11" t="s">
         <v>492</v>
       </c>
+      <c r="BD14" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -10409,6 +10543,15 @@
       <c r="BC15" s="11" t="s">
         <v>493</v>
       </c>
+      <c r="BD15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF15" s="11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="16" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -10574,8 +10717,17 @@
       <c r="BC16" s="11" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD16" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>54</v>
       </c>
@@ -10739,8 +10891,17 @@
       <c r="BC17" s="11" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="18" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF17" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -10904,8 +11065,17 @@
       <c r="BC18" s="11" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD18" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF18" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
@@ -11067,8 +11237,17 @@
       <c r="BC19" s="11" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="20" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF19" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
@@ -11232,8 +11411,17 @@
       <c r="BC20" s="11" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD20" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>262</v>
       </c>
@@ -11395,8 +11583,17 @@
       <c r="BC21" s="11" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="22" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF21" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>65</v>
       </c>
@@ -11560,8 +11757,17 @@
       <c r="BC22" s="11" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="23" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>264</v>
       </c>
@@ -11723,8 +11929,17 @@
       <c r="BC23" s="11" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF23" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>67</v>
       </c>
@@ -11888,8 +12103,17 @@
       <c r="BC24" s="11" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="25" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD24" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>70</v>
       </c>
@@ -12053,8 +12277,17 @@
       <c r="BC25" s="11" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="26" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD25" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF25" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>73</v>
       </c>
@@ -12216,8 +12449,17 @@
       <c r="BC26" s="11" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="27" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD26" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
@@ -12379,8 +12621,17 @@
       <c r="BC27" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="28" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD27" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE27" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF27" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
@@ -12542,8 +12793,17 @@
       <c r="BC28" s="11" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="29" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF28" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>268</v>
       </c>
@@ -12707,8 +12967,17 @@
       <c r="BC29" s="11" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="30" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF29" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>79</v>
       </c>
@@ -12870,8 +13139,17 @@
       <c r="BC30" s="11" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="31" spans="1:55" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="BD30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF30" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>271</v>
       </c>
@@ -13033,8 +13311,17 @@
       <c r="BC31" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="32" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF31" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
@@ -13198,8 +13485,17 @@
       <c r="BC32" s="11" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="33" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD32" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE32" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF32" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>84</v>
       </c>
@@ -13361,8 +13657,17 @@
       <c r="BC33" s="11" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="34" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF33" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>87</v>
       </c>
@@ -13526,8 +13831,17 @@
       <c r="BC34" s="11" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="35" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD34" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE34" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF34" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>89</v>
       </c>
@@ -13691,8 +14005,17 @@
       <c r="BC35" s="11" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="36" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD35" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE35" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF35" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>92</v>
       </c>
@@ -13854,8 +14177,17 @@
       <c r="BC36" s="9" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="37" spans="1:55" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BD36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF36" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>94</v>
       </c>
@@ -14017,8 +14349,17 @@
       <c r="BC37" s="11" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:55" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD37" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE37" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF37" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>274</v>
       </c>
@@ -14180,8 +14521,17 @@
       <c r="BC38" s="11" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="39" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE38" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF38" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>97</v>
       </c>
@@ -14345,8 +14695,17 @@
       <c r="BC39" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="40" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD39" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE39" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF39" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>100</v>
       </c>
@@ -14508,8 +14867,17 @@
       <c r="BC40" s="9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="41" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD40" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE40" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF40" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>101</v>
       </c>
@@ -14671,8 +15039,17 @@
       <c r="BC41" s="11" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="42" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD41" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE41" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF41" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>102</v>
       </c>
@@ -14834,8 +15211,17 @@
       <c r="BC42" s="11" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="43" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF42" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>276</v>
       </c>
@@ -14997,8 +15383,17 @@
       <c r="BC43" s="11" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="44" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF43" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>105</v>
       </c>
@@ -15160,8 +15555,17 @@
       <c r="BC44" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="45" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF44" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>107</v>
       </c>
@@ -15323,8 +15727,17 @@
       <c r="BC45" s="11" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="46" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF45" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
@@ -15486,8 +15899,17 @@
       <c r="BC46" s="11" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="47" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD46" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE46" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF46" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>112</v>
       </c>
@@ -15651,8 +16073,17 @@
       <c r="BC47" s="11" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="48" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD47" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE47" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF47" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>114</v>
       </c>
@@ -15816,8 +16247,17 @@
       <c r="BC48" s="11" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="49" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD48" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE48" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF48" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>116</v>
       </c>
@@ -15981,8 +16421,17 @@
       <c r="BC49" s="11" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="50" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BD49" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE49" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF49" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>118</v>
       </c>
@@ -16146,8 +16595,17 @@
       <c r="BC50" s="11" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="51" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD50" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE50" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF50" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>279</v>
       </c>
@@ -16311,8 +16769,17 @@
       <c r="BC51" s="11" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="52" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD51" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF51" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>121</v>
       </c>
@@ -16474,8 +16941,17 @@
       <c r="BC52" s="11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="53" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD52" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE52" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF52" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>123</v>
       </c>
@@ -16639,8 +17115,17 @@
       <c r="BC53" s="11" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="54" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF53" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>125</v>
       </c>
@@ -16804,8 +17289,17 @@
       <c r="BC54" s="11" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="55" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD54" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE54" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF54" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>127</v>
       </c>
@@ -16967,8 +17461,17 @@
       <c r="BC55" s="11" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="56" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD55" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE55" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF55" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>130</v>
       </c>
@@ -17132,8 +17635,17 @@
       <c r="BC56" s="11" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="57" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD56" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE56" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF56" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>133</v>
       </c>
@@ -17297,8 +17809,17 @@
       <c r="BC57" s="11" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="58" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF57" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>136</v>
       </c>
@@ -17460,8 +17981,17 @@
       <c r="BC58" s="11" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="59" spans="1:55" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD58" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE58" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF58" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>139</v>
       </c>
@@ -17625,8 +18155,17 @@
       <c r="BC59" s="11" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="60" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD59" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE59" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF59" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>142</v>
       </c>
@@ -17790,8 +18329,17 @@
       <c r="BC60" s="11" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="61" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD60" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE60" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF60" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>144</v>
       </c>
@@ -17955,8 +18503,17 @@
       <c r="BC61" s="11" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="62" spans="1:55" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD61" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE61" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF61" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>147</v>
       </c>
@@ -18118,8 +18675,17 @@
       <c r="BC62" s="11" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="63" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD62" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE62" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF62" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>281</v>
       </c>
@@ -18281,8 +18847,17 @@
       <c r="BC63" s="11" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="64" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD63" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE63" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF63" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>149</v>
       </c>
@@ -18446,8 +19021,17 @@
       <c r="BC64" s="11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="65" spans="1:55" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BD64" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE64" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF64" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>152</v>
       </c>
@@ -18611,8 +19195,17 @@
       <c r="BC65" s="11" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="66" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD65" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE65" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF65" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>155</v>
       </c>
@@ -18776,8 +19369,17 @@
       <c r="BC66" s="11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="67" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD66" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE66" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF66" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>158</v>
       </c>
@@ -18941,8 +19543,17 @@
       <c r="BC67" s="11" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD67" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE67" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF67" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>161</v>
       </c>
@@ -19106,8 +19717,17 @@
       <c r="BC68" s="11" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="69" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD68" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE68" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF68" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>284</v>
       </c>
@@ -19269,8 +19889,17 @@
       <c r="BC69" s="11" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="70" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD69" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE69" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF69" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>287</v>
       </c>
@@ -19432,8 +20061,17 @@
       <c r="BC70" s="11" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="71" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD70" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE70" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF70" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>163</v>
       </c>
@@ -19597,8 +20235,17 @@
       <c r="BC71" s="11" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="72" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="BD71" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE71" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF71" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>166</v>
       </c>
@@ -19760,8 +20407,17 @@
       <c r="BC72" s="11" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="73" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD72" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE72" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF72" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>169</v>
       </c>
@@ -19923,8 +20579,17 @@
       <c r="BC73" s="11" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="74" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD73" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE73" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF73" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>290</v>
       </c>
@@ -20088,8 +20753,17 @@
       <c r="BC74" s="11" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="75" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD74" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE74" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF74" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>293</v>
       </c>
@@ -20253,8 +20927,17 @@
       <c r="BC75" s="11" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="76" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD75" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE75" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF75" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>172</v>
       </c>
@@ -20418,8 +21101,17 @@
       <c r="BC76" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="77" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD76" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE76" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF76" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>176</v>
       </c>
@@ -20581,8 +21273,17 @@
       <c r="BC77" s="11" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="78" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD77" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE77" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF77" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>179</v>
       </c>
@@ -20746,8 +21447,17 @@
       <c r="BC78" s="9" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="79" spans="1:55" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD78" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE78" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF78" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>182</v>
       </c>
@@ -20909,8 +21619,17 @@
       <c r="BC79" s="11" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="80" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+      <c r="BD79" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE79" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF79" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>185</v>
       </c>
@@ -21072,8 +21791,17 @@
       <c r="BC80" s="11" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="81" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD80" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE80" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF80" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>188</v>
       </c>
@@ -21237,8 +21965,17 @@
       <c r="BC81" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="82" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD81" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE81" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF81" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>189</v>
       </c>
@@ -21402,8 +22139,17 @@
       <c r="BC82" s="11" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="83" spans="1:55" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="BD82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF82" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>296</v>
       </c>
@@ -21565,8 +22311,17 @@
       <c r="BC83" s="11" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="84" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD83" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE83" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF83" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>191</v>
       </c>
@@ -21730,8 +22485,17 @@
       <c r="BC84" s="11" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="85" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD84" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE84" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF84" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>193</v>
       </c>
@@ -21895,8 +22659,17 @@
       <c r="BC85" s="11" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="86" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD85" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE85" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF85" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>195</v>
       </c>
@@ -22060,8 +22833,17 @@
       <c r="BC86" s="11" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="87" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD86" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE86" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF86" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>198</v>
       </c>
@@ -22223,8 +23005,17 @@
       <c r="BC87" s="11" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="88" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD87" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE87" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF87" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>200</v>
       </c>
@@ -22386,8 +23177,17 @@
       <c r="BC88" s="11" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="89" spans="1:55" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD88" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE88" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF88" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>201</v>
       </c>
@@ -22551,8 +23351,17 @@
       <c r="BC89" s="11" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD89" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE89" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF89" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
         <v>203</v>
       </c>
@@ -22716,8 +23525,17 @@
       <c r="BC90" s="11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="91" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD90" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE90" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF90" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>206</v>
       </c>
@@ -22881,8 +23699,17 @@
       <c r="BC91" s="11" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="92" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD91" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE91" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF91" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>209</v>
       </c>
@@ -23046,8 +23873,17 @@
       <c r="BC92" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="93" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD92" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE92" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF92" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>300</v>
       </c>
@@ -23210,8 +24046,17 @@
       <c r="BC93" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="94" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD93" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE93" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF93" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>211</v>
       </c>
@@ -23374,8 +24219,17 @@
       <c r="BC94" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="95" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD94" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE94" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF94" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>303</v>
       </c>
@@ -23538,8 +24392,17 @@
       <c r="BC95" s="11" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="96" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD95" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE95" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF95" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>213</v>
       </c>
@@ -23702,8 +24565,17 @@
       <c r="BC96" s="11" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="97" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD96" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE96" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF96" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>216</v>
       </c>
@@ -23866,8 +24738,17 @@
       <c r="BC97" s="11" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="98" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD97" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE97" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF97" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>219</v>
       </c>
@@ -24028,8 +24909,17 @@
       <c r="BC98" s="11" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="99" spans="1:55" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BD98" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE98" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF98" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>304</v>
       </c>
@@ -24190,8 +25080,17 @@
       <c r="BC99" s="11" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="100" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD99" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE99" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF99" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>221</v>
       </c>
@@ -24352,8 +25251,17 @@
       <c r="BC100" s="11" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="101" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="BD100" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE100" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF100" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>224</v>
       </c>
@@ -24516,8 +25424,17 @@
       <c r="BC101" s="11" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD101" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE101" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF101" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -24548,7 +25465,7 @@
       <c r="AM102" s="11"/>
       <c r="AN102" s="11"/>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -24579,7 +25496,7 @@
       <c r="AM103" s="11"/>
       <c r="AN103" s="11"/>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -24610,7 +25527,7 @@
       <c r="AM104" s="11"/>
       <c r="AN104" s="11"/>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
@@ -24641,7 +25558,7 @@
       <c r="AM105" s="11"/>
       <c r="AN105" s="11"/>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -24672,7 +25589,7 @@
       <c r="AM106" s="11"/>
       <c r="AN106" s="11"/>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -24703,7 +25620,7 @@
       <c r="AM107" s="11"/>
       <c r="AN107" s="11"/>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -24734,7 +25651,7 @@
       <c r="AM108" s="11"/>
       <c r="AN108" s="11"/>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
@@ -24765,7 +25682,7 @@
       <c r="AM109" s="11"/>
       <c r="AN109" s="11"/>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -24796,7 +25713,7 @@
       <c r="AM110" s="11"/>
       <c r="AN110" s="11"/>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
@@ -24827,7 +25744,7 @@
       <c r="AM111" s="11"/>
       <c r="AN111" s="11"/>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.3">
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
